--- a/Adsorption_simulations_complete.xlsx
+++ b/Adsorption_simulations_complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tillc\Documents\MegaSync\Master\Research Project - CCS\Adsorption\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E5FA6F-335B-4D5F-9059-F4370C99205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB142A3F-9536-4CFC-8EBA-EF800933A323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEC00148-2D1F-4419-9768-F3C8FA3680B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FEC00148-2D1F-4419-9768-F3C8FA3680B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Boiler West" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -170,531 +169,321 @@
           <cell r="A12">
             <v>80</v>
           </cell>
-          <cell r="C12">
-            <v>0.99200311284915599</v>
-          </cell>
         </row>
         <row r="13">
-          <cell r="C13">
-            <v>0.95591371905732903</v>
-          </cell>
+          <cell r="A13"/>
         </row>
         <row r="14">
-          <cell r="C14">
-            <v>0.91628772696079397</v>
-          </cell>
+          <cell r="A14"/>
         </row>
         <row r="15">
-          <cell r="C15">
-            <v>0.86637725104557295</v>
-          </cell>
+          <cell r="A15"/>
         </row>
         <row r="16">
-          <cell r="C16">
-            <v>0.81320113123048099</v>
-          </cell>
+          <cell r="A16"/>
         </row>
         <row r="17">
-          <cell r="C17">
-            <v>0.75410984742417098</v>
-          </cell>
+          <cell r="A17"/>
         </row>
         <row r="18">
-          <cell r="C18">
-            <v>0.70679839427612001</v>
-          </cell>
+          <cell r="A18"/>
         </row>
         <row r="19">
-          <cell r="C19">
-            <v>0.68364665690639004</v>
-          </cell>
+          <cell r="A19"/>
         </row>
         <row r="20">
-          <cell r="C20">
-            <v>0.67433575699959203</v>
-          </cell>
+          <cell r="A20"/>
         </row>
         <row r="21">
-          <cell r="C21">
-            <v>0.66997260446043205</v>
-          </cell>
+          <cell r="A21"/>
         </row>
         <row r="22">
           <cell r="A22">
             <v>90</v>
           </cell>
-          <cell r="C22">
-            <v>1.0028284756457999</v>
-          </cell>
         </row>
         <row r="23">
-          <cell r="C23">
-            <v>0.98175936713918099</v>
-          </cell>
+          <cell r="A23"/>
         </row>
         <row r="24">
-          <cell r="C24">
-            <v>0.95804152155923805</v>
-          </cell>
+          <cell r="A24"/>
         </row>
         <row r="25">
-          <cell r="C25">
-            <v>0.92600749234618196</v>
-          </cell>
+          <cell r="A25"/>
         </row>
         <row r="26">
-          <cell r="C26">
-            <v>0.89048294649772497</v>
-          </cell>
+          <cell r="A26"/>
         </row>
         <row r="27">
-          <cell r="C27">
-            <v>0.850932334663423</v>
-          </cell>
+          <cell r="A27"/>
         </row>
         <row r="28">
-          <cell r="C28">
-            <v>0.81228120245662905</v>
-          </cell>
+          <cell r="A28"/>
         </row>
         <row r="29">
-          <cell r="C29">
-            <v>0.77182825805989497</v>
-          </cell>
+          <cell r="A29"/>
         </row>
         <row r="30">
-          <cell r="C30">
-            <v>0.73224396941999703</v>
-          </cell>
+          <cell r="A30"/>
         </row>
         <row r="31">
-          <cell r="C31">
-            <v>0.70160538073992396</v>
-          </cell>
+          <cell r="A31"/>
         </row>
         <row r="32">
           <cell r="A32">
             <v>100</v>
           </cell>
-          <cell r="C32">
-            <v>1.00885646186339</v>
-          </cell>
         </row>
         <row r="33">
-          <cell r="C33">
-            <v>0.99708673572768403</v>
-          </cell>
+          <cell r="A33"/>
         </row>
         <row r="34">
-          <cell r="C34">
-            <v>0.98359728232598398</v>
-          </cell>
+          <cell r="A34"/>
         </row>
         <row r="35">
-          <cell r="C35">
-            <v>0.96285952298048605</v>
-          </cell>
+          <cell r="A35"/>
         </row>
         <row r="36">
-          <cell r="C36">
-            <v>0.93952649558845402</v>
-          </cell>
+          <cell r="A36"/>
         </row>
         <row r="37">
-          <cell r="C37">
-            <v>0.91286389672164103</v>
-          </cell>
+          <cell r="A37"/>
         </row>
         <row r="38">
-          <cell r="C38">
-            <v>0.88693963709606105</v>
-          </cell>
+          <cell r="A38"/>
         </row>
         <row r="39">
-          <cell r="C39">
-            <v>0.85965357038871304</v>
-          </cell>
+          <cell r="A39"/>
         </row>
         <row r="40">
-          <cell r="C40">
-            <v>0.83059201378645497</v>
-          </cell>
+          <cell r="A40"/>
         </row>
         <row r="41">
-          <cell r="C41">
-            <v>0.80053802995565404</v>
-          </cell>
+          <cell r="A41"/>
         </row>
         <row r="42">
           <cell r="A42">
             <v>110</v>
           </cell>
-          <cell r="C42">
-            <v>1.01220652992612</v>
-          </cell>
         </row>
         <row r="43">
-          <cell r="C43">
-            <v>1.00623971666817</v>
-          </cell>
+          <cell r="A43"/>
         </row>
         <row r="44">
-          <cell r="C44">
-            <v>0.99891191573143301</v>
-          </cell>
+          <cell r="A44"/>
         </row>
         <row r="45">
-          <cell r="C45">
-            <v>0.98576752361005504</v>
-          </cell>
+          <cell r="A45"/>
         </row>
         <row r="46">
-          <cell r="C46">
-            <v>0.97061261428898604</v>
-          </cell>
+          <cell r="A46"/>
         </row>
         <row r="47">
-          <cell r="C47">
-            <v>0.95268342432379005</v>
-          </cell>
+          <cell r="A47"/>
         </row>
         <row r="48">
-          <cell r="C48">
-            <v>0.93549530026348404</v>
-          </cell>
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="C49">
-            <v>0.91721031859216096</v>
-          </cell>
+          <cell r="A49"/>
         </row>
         <row r="50">
-          <cell r="C50">
-            <v>0.897502902023113</v>
-          </cell>
+          <cell r="A50"/>
         </row>
         <row r="51">
-          <cell r="C51">
-            <v>0.87700144197890495</v>
-          </cell>
+          <cell r="A51"/>
         </row>
         <row r="52">
           <cell r="A52">
             <v>120</v>
           </cell>
-          <cell r="C52">
-            <v>1.01398756024431</v>
-          </cell>
         </row>
         <row r="53">
-          <cell r="C53">
-            <v>1.0114557065238301</v>
-          </cell>
+          <cell r="A53"/>
         </row>
         <row r="54">
-          <cell r="C54">
-            <v>1.0080689397490401</v>
-          </cell>
+          <cell r="A54"/>
         </row>
         <row r="55">
-          <cell r="C55">
-            <v>0.99979071010599896</v>
-          </cell>
+          <cell r="A55"/>
         </row>
         <row r="56">
-          <cell r="C56">
-            <v>0.99000671175007704</v>
-          </cell>
+          <cell r="A56"/>
         </row>
         <row r="57">
-          <cell r="C57">
-            <v>0.97808872796686797</v>
-          </cell>
+          <cell r="A57"/>
         </row>
         <row r="58">
-          <cell r="C58">
-            <v>0.96648128158386704</v>
-          </cell>
+          <cell r="A58"/>
         </row>
         <row r="59">
-          <cell r="C59">
-            <v>0.954306275336957</v>
-          </cell>
+          <cell r="A59"/>
         </row>
         <row r="60">
-          <cell r="C60">
-            <v>0.94096160503943804</v>
-          </cell>
+          <cell r="A60"/>
         </row>
         <row r="61">
-          <cell r="C61">
-            <v>0.92707351855801801</v>
-          </cell>
+          <cell r="A61"/>
         </row>
         <row r="62">
           <cell r="A62">
             <v>130</v>
           </cell>
-          <cell r="C62">
-            <v>1.014846650125</v>
-          </cell>
         </row>
         <row r="63">
-          <cell r="C63">
-            <v>1.01434928878986</v>
-          </cell>
+          <cell r="A63"/>
         </row>
         <row r="64">
-          <cell r="C64">
-            <v>1.0134618505742601</v>
-          </cell>
+          <cell r="A64"/>
         </row>
         <row r="65">
-          <cell r="C65">
-            <v>1.0083476061294201</v>
-          </cell>
+          <cell r="A65"/>
         </row>
         <row r="66">
-          <cell r="C66">
-            <v>1.00205573532437</v>
-          </cell>
+          <cell r="A66"/>
         </row>
         <row r="67">
-          <cell r="C67">
-            <v>0.994172272786633</v>
-          </cell>
+          <cell r="A67"/>
         </row>
         <row r="68">
-          <cell r="C68">
-            <v>0.98667844579707198</v>
-          </cell>
+          <cell r="A68"/>
         </row>
         <row r="69">
-          <cell r="C69">
-            <v>0.97850708608633497</v>
-          </cell>
+          <cell r="A69"/>
         </row>
         <row r="70">
-          <cell r="C70">
-            <v>0.96954441646520395</v>
-          </cell>
+          <cell r="A70"/>
         </row>
         <row r="71">
-          <cell r="C71">
-            <v>0.96023245816846003</v>
-          </cell>
+          <cell r="A71"/>
         </row>
         <row r="72">
           <cell r="A72">
             <v>140</v>
           </cell>
-          <cell r="C72">
-            <v>1.0151517459499699</v>
-          </cell>
         </row>
         <row r="73">
-          <cell r="C73">
-            <v>1.0158048794923999</v>
-          </cell>
+          <cell r="A73"/>
         </row>
         <row r="74">
-          <cell r="C74">
-            <v>1.01640216260352</v>
-          </cell>
+          <cell r="A74"/>
         </row>
         <row r="75">
-          <cell r="C75">
-            <v>1.0131970469145399</v>
-          </cell>
+          <cell r="A75"/>
         </row>
         <row r="76">
-          <cell r="C76">
-            <v>1.0093104044776</v>
-          </cell>
+          <cell r="A76"/>
         </row>
         <row r="77">
-          <cell r="C77">
-            <v>1.0038795745006599</v>
-          </cell>
+          <cell r="A77"/>
         </row>
         <row r="78">
-          <cell r="C78">
-            <v>0.999039378113867</v>
-          </cell>
+          <cell r="A78"/>
         </row>
         <row r="79">
-          <cell r="C79">
-            <v>0.99367140715744295</v>
-          </cell>
+          <cell r="A79"/>
         </row>
         <row r="80">
-          <cell r="C80">
-            <v>0.98766483719380804</v>
-          </cell>
+          <cell r="A80"/>
         </row>
         <row r="81">
-          <cell r="C81">
-            <v>0.98146213795674797</v>
-          </cell>
+          <cell r="A81"/>
         </row>
         <row r="82">
           <cell r="A82">
             <v>150</v>
           </cell>
-          <cell r="C82">
-            <v>1.0151175729728601</v>
-          </cell>
         </row>
         <row r="83">
-          <cell r="C83">
-            <v>1.01637705058947</v>
-          </cell>
+          <cell r="A83"/>
         </row>
         <row r="84">
-          <cell r="C84">
-            <v>1.01787157503482</v>
-          </cell>
+          <cell r="A84"/>
         </row>
         <row r="85">
-          <cell r="C85">
-            <v>1.01576084926812</v>
-          </cell>
+          <cell r="A85"/>
         </row>
         <row r="86">
-          <cell r="C86">
-            <v>1.0132378490885601</v>
-          </cell>
+          <cell r="A86"/>
         </row>
         <row r="87">
-          <cell r="C87">
-            <v>1.0094067969137801</v>
-          </cell>
+          <cell r="A87"/>
         </row>
         <row r="88">
-          <cell r="C88">
-            <v>1.0062537753190499</v>
-          </cell>
+          <cell r="A88"/>
         </row>
         <row r="89">
-          <cell r="C89">
-            <v>1.0026978495064001</v>
-          </cell>
+          <cell r="A89"/>
         </row>
         <row r="90">
-          <cell r="C90">
-            <v>0.99858001914136996</v>
-          </cell>
+          <cell r="A90"/>
         </row>
         <row r="91">
-          <cell r="C91">
-            <v>0.99442731368113801</v>
-          </cell>
+          <cell r="A91"/>
         </row>
         <row r="92">
           <cell r="A92">
             <v>160</v>
           </cell>
-          <cell r="C92">
-            <v>1.01504198465008</v>
-          </cell>
         </row>
         <row r="93">
-          <cell r="C93">
-            <v>1.01656893387933</v>
-          </cell>
+          <cell r="A93"/>
         </row>
         <row r="94">
-          <cell r="C94">
-            <v>1.01825763293819</v>
-          </cell>
+          <cell r="A94"/>
         </row>
         <row r="95">
-          <cell r="C95">
-            <v>1.0169872690866</v>
-          </cell>
+          <cell r="A95"/>
         </row>
         <row r="96">
-          <cell r="C96">
-            <v>1.0152770757212399</v>
-          </cell>
+          <cell r="A96"/>
         </row>
         <row r="97">
-          <cell r="C97">
-            <v>1.0124573020113501</v>
-          </cell>
+          <cell r="A97"/>
         </row>
         <row r="98">
-          <cell r="C98">
-            <v>1.01032895590327</v>
-          </cell>
+          <cell r="A98"/>
         </row>
         <row r="99">
-          <cell r="C99">
-            <v>1.00789741178657</v>
-          </cell>
+          <cell r="A99"/>
         </row>
         <row r="100">
-          <cell r="C100">
-            <v>1.00498926662724</v>
-          </cell>
+          <cell r="A100"/>
         </row>
         <row r="101">
-          <cell r="C101">
-            <v>1.0021156672310201</v>
-          </cell>
+          <cell r="A101"/>
         </row>
         <row r="102">
           <cell r="A102">
             <v>170</v>
           </cell>
-          <cell r="C102">
-            <v>1.01484983012325</v>
-          </cell>
         </row>
         <row r="103">
-          <cell r="C103">
-            <v>1.0163969239922599</v>
-          </cell>
+          <cell r="A103"/>
         </row>
         <row r="104">
-          <cell r="C104">
-            <v>1.0184150517150401</v>
-          </cell>
+          <cell r="A104"/>
         </row>
         <row r="105">
-          <cell r="C105">
-            <v>1.0174781381402001</v>
-          </cell>
+          <cell r="A105"/>
         </row>
         <row r="106">
-          <cell r="C106">
-            <v>1.0161205493274299</v>
-          </cell>
+          <cell r="A106"/>
         </row>
         <row r="107">
-          <cell r="C107">
-            <v>1.0140072452259801</v>
-          </cell>
+          <cell r="A107"/>
         </row>
         <row r="108">
-          <cell r="C108">
-            <v>1.01250520095108</v>
-          </cell>
+          <cell r="A108"/>
         </row>
         <row r="109">
-          <cell r="C109">
-            <v>1.0107835631728199</v>
-          </cell>
+          <cell r="A109"/>
         </row>
         <row r="110">
-          <cell r="C110">
-            <v>1.0086432731678301</v>
-          </cell>
+          <cell r="A110"/>
         </row>
         <row r="111">
-          <cell r="C111">
-            <v>1.0065890769530901</v>
-          </cell>
+          <cell r="A111"/>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -1208,1054 +997,328 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2">
-            <v>0.97074929502961105</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>0.911866982435804</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>0.84326514472987202</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>0.76747331932059704</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>0.68685711461884202</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>0.63320467803735103</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>0.61502849724160602</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>0.61281720237016701</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>0.61295959549253998</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>0.613124668272226</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>0.98817478978590101</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>0.95276413643823299</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>0.91015423950375096</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>0.86178346068613099</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>0.80876960315574298</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>0.75177198962005398</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>0.69046564111028097</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>0.64700290186711495</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>0.626193616575069</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>0.61619558383452899</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>0.99811241953973895</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>0.97728051314741404</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>0.95122896315634098</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>0.92045786831078502</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>0.88607491803232896</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>0.84830334975334698</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>0.80753637475775997</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>0.765587841272658</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>0.72058006380645401</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>0.67968867697538704</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>1.0038070766326199</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>0.99207711488170502</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>0.97609210783033795</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>0.95697254417733901</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>0.93491180774356897</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>0.91016398094018203</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>0.88314411754931099</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>0.85552532700806405</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>0.82614911873286501</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>0.79551858193846703</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>1.00701940191343</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>1.00076698154636</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>0.99139840866329398</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>0.97954266702548098</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>0.96560399811660302</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>0.94964039079602103</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>0.93161567579006299</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>0.91333086432128197</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>0.89378125164407995</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>0.87331469211553303</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>1.0087532040268401</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>1.00583926580824</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="C54">
-            <v>1.00067514147602</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="C55">
-            <v>0.99365239721495302</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="C56">
-            <v>0.98499716987077601</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="C57">
-            <v>0.97493005238739805</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="C58">
-            <v>0.96327483129618596</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>0.95119239393226496</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="C60">
-            <v>0.93829671461403996</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="C61">
-            <v>0.92480345077545101</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="C62">
-            <v>1.00958200792555</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="C63">
-            <v>1.00860357933093</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="C64">
-            <v>1.0060101758876101</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="C65">
-            <v>1.0019694313360501</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="C66">
-            <v>0.99688394990642704</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="C67">
-            <v>0.99046351054871395</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="C68">
-            <v>0.98292973980805098</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>0.97516293790333097</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>0.96676799663823498</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>0.95798353963817495</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>1.00986483971843</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>1.0099632542508099</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>1.0089081431643401</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>1.00662783207213</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>1.00362557080903</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="C77">
-            <v>0.99953703230773805</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="C78">
-            <v>0.99462737950386304</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="C79">
-            <v>0.98962604925001396</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="C80">
-            <v>0.98412041839171405</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="C81">
-            <v>0.97842938653948996</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="C82">
-            <v>1.0099809384757099</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="C83">
-            <v>1.01062145262688</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="C84">
-            <v>1.0102396739434301</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="C85">
-            <v>1.0091215638608599</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="C86">
-            <v>1.0073609685740601</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="C87">
-            <v>1.0047342869192799</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="C88">
-            <v>1.0014263745284699</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="C89">
-            <v>0.99815384255045003</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="C90">
-            <v>0.99448344764401997</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="C91">
-            <v>0.99071804875496505</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="C92">
-            <v>1.00991306552635</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="C93">
-            <v>1.01072756443226</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="C94">
-            <v>1.01093399856266</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="C95">
-            <v>1.0103838203156801</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="C96">
-            <v>1.0092119936411299</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="C97">
-            <v>1.00757246297694</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="C98">
-            <v>1.005254091231</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="C99">
-            <v>1.0030556382883</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="C100">
-            <v>1.00054005050744</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="C101">
-            <v>0.99800944707458505</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
         <row r="12">
           <cell r="A12">
             <v>80</v>
           </cell>
-          <cell r="C12">
-            <v>0.99704092294161395</v>
-          </cell>
         </row>
         <row r="13">
-          <cell r="C13">
-            <v>0.96575617807102199</v>
-          </cell>
+          <cell r="A13"/>
         </row>
         <row r="14">
-          <cell r="C14">
-            <v>0.93016594591624402</v>
-          </cell>
+          <cell r="A14"/>
         </row>
         <row r="15">
-          <cell r="C15">
-            <v>0.88544330501401503</v>
-          </cell>
+          <cell r="A15"/>
         </row>
         <row r="16">
-          <cell r="C16">
-            <v>0.83773849438056003</v>
-          </cell>
+          <cell r="A16"/>
         </row>
         <row r="17">
-          <cell r="C17">
-            <v>0.78427732329303101</v>
-          </cell>
+          <cell r="A17"/>
         </row>
         <row r="18">
-          <cell r="C18">
-            <v>0.73724654595307204</v>
-          </cell>
+          <cell r="A18"/>
         </row>
         <row r="19">
-          <cell r="C19">
-            <v>0.70729112923925397</v>
-          </cell>
+          <cell r="A19"/>
         </row>
         <row r="20">
-          <cell r="C20">
-            <v>0.69305006974676397</v>
-          </cell>
+          <cell r="A20"/>
         </row>
         <row r="21">
-          <cell r="C21">
-            <v>0.68665605833613497</v>
-          </cell>
+          <cell r="A21"/>
         </row>
         <row r="22">
           <cell r="A22">
             <v>90</v>
           </cell>
-          <cell r="C22">
-            <v>1.00655521307553</v>
-          </cell>
         </row>
         <row r="23">
-          <cell r="C23">
-            <v>0.98862263940851602</v>
-          </cell>
+          <cell r="A23"/>
         </row>
         <row r="24">
-          <cell r="C24">
-            <v>0.96737062434661902</v>
-          </cell>
+          <cell r="A24"/>
         </row>
         <row r="25">
-          <cell r="C25">
-            <v>0.93867086708421599</v>
-          </cell>
+          <cell r="A25"/>
         </row>
         <row r="26">
-          <cell r="C26">
-            <v>0.90669553007735304</v>
-          </cell>
+          <cell r="A26"/>
         </row>
         <row r="27">
-          <cell r="C27">
-            <v>0.87074638426241802</v>
-          </cell>
+          <cell r="A27"/>
         </row>
         <row r="28">
-          <cell r="C28">
-            <v>0.83605957761035499</v>
-          </cell>
+          <cell r="A28"/>
         </row>
         <row r="29">
-          <cell r="C29">
-            <v>0.79977042635291995</v>
-          </cell>
+          <cell r="A29"/>
         </row>
         <row r="30">
-          <cell r="C30">
-            <v>0.76219401603523296</v>
-          </cell>
+          <cell r="A30"/>
         </row>
         <row r="31">
-          <cell r="C31">
-            <v>0.72919688702055196</v>
-          </cell>
+          <cell r="A31"/>
         </row>
         <row r="32">
           <cell r="A32">
             <v>100</v>
           </cell>
-          <cell r="C32">
-            <v>1.01179292059166</v>
-          </cell>
         </row>
         <row r="33">
-          <cell r="C33">
-            <v>1.0021100921013399</v>
-          </cell>
+          <cell r="A33"/>
         </row>
         <row r="34">
-          <cell r="C34">
-            <v>0.99007656847706604</v>
-          </cell>
+          <cell r="A34"/>
         </row>
         <row r="35">
-          <cell r="C35">
-            <v>0.97150547960612499</v>
-          </cell>
+          <cell r="A35"/>
         </row>
         <row r="36">
-          <cell r="C36">
-            <v>0.95046186371156205</v>
-          </cell>
+          <cell r="A36"/>
         </row>
         <row r="37">
-          <cell r="C37">
-            <v>0.92609159104239303</v>
-          </cell>
+          <cell r="A37"/>
         </row>
         <row r="38">
-          <cell r="C38">
-            <v>0.90275924979252398</v>
-          </cell>
+          <cell r="A38"/>
         </row>
         <row r="39">
-          <cell r="C39">
-            <v>0.87814726533785203</v>
-          </cell>
+          <cell r="A39"/>
         </row>
         <row r="40">
-          <cell r="C40">
-            <v>0.85171145443365504</v>
-          </cell>
+          <cell r="A40"/>
         </row>
         <row r="41">
-          <cell r="C41">
-            <v>0.82426531366278799</v>
-          </cell>
+          <cell r="A41"/>
         </row>
         <row r="42">
           <cell r="A42">
             <v>110</v>
           </cell>
-          <cell r="C42">
-            <v>1.0146578600977501</v>
-          </cell>
         </row>
         <row r="43">
-          <cell r="C43">
-            <v>1.01011423413698</v>
-          </cell>
+          <cell r="A43"/>
         </row>
         <row r="44">
-          <cell r="C44">
-            <v>1.00362303129402</v>
-          </cell>
+          <cell r="A44"/>
         </row>
         <row r="45">
-          <cell r="C45">
-            <v>0.99185484035969895</v>
-          </cell>
+          <cell r="A45"/>
         </row>
         <row r="46">
-          <cell r="C46">
-            <v>0.97818210507694703</v>
-          </cell>
+          <cell r="A46"/>
         </row>
         <row r="47">
-          <cell r="C47">
-            <v>0.96169634106093205</v>
-          </cell>
+          <cell r="A47"/>
         </row>
         <row r="48">
-          <cell r="C48">
-            <v>0.94620290839374899</v>
-          </cell>
+          <cell r="A48"/>
         </row>
         <row r="49">
-          <cell r="C49">
-            <v>0.92965750255119395</v>
-          </cell>
+          <cell r="A49"/>
         </row>
         <row r="50">
-          <cell r="C50">
-            <v>0.91162907526414505</v>
-          </cell>
+          <cell r="A50"/>
         </row>
         <row r="51">
-          <cell r="C51">
-            <v>0.89300738146496905</v>
-          </cell>
+          <cell r="A51"/>
         </row>
         <row r="52">
           <cell r="A52">
             <v>120</v>
           </cell>
-          <cell r="C52">
-            <v>1.0161334484884701</v>
-          </cell>
         </row>
         <row r="53">
-          <cell r="C53">
-            <v>1.0146071545395301</v>
-          </cell>
+          <cell r="A53"/>
         </row>
         <row r="54">
-          <cell r="C54">
-            <v>1.0116332713809</v>
-          </cell>
+          <cell r="A54"/>
         </row>
         <row r="55">
-          <cell r="C55">
-            <v>1.0042568168795101</v>
-          </cell>
+          <cell r="A55"/>
         </row>
         <row r="56">
-          <cell r="C56">
-            <v>0.99541574680455402</v>
-          </cell>
+          <cell r="A56"/>
         </row>
         <row r="57">
-          <cell r="C57">
-            <v>0.98439346160395902</v>
-          </cell>
+          <cell r="A57"/>
         </row>
         <row r="58">
-          <cell r="C58">
-            <v>0.97388577334897797</v>
-          </cell>
+          <cell r="A58"/>
         </row>
         <row r="59">
-          <cell r="C59">
-            <v>0.96284394098508597</v>
-          </cell>
+          <cell r="A59"/>
         </row>
         <row r="60">
-          <cell r="C60">
-            <v>0.95057175034853303</v>
-          </cell>
+          <cell r="A60"/>
         </row>
         <row r="61">
-          <cell r="C61">
-            <v>0.93789368383961003</v>
-          </cell>
+          <cell r="A61"/>
         </row>
         <row r="62">
           <cell r="A62">
             <v>130</v>
           </cell>
-          <cell r="C62">
-            <v>1.0167983381279599</v>
-          </cell>
         </row>
         <row r="63">
-          <cell r="C63">
-            <v>1.0170336152780699</v>
-          </cell>
+          <cell r="A63"/>
         </row>
         <row r="64">
-          <cell r="C64">
-            <v>1.01629590773082</v>
-          </cell>
+          <cell r="A64"/>
         </row>
         <row r="65">
-          <cell r="C65">
-            <v>1.01175017598283</v>
-          </cell>
+          <cell r="A65"/>
         </row>
         <row r="66">
-          <cell r="C66">
-            <v>1.00604716727282</v>
-          </cell>
+          <cell r="A66"/>
         </row>
         <row r="67">
-          <cell r="C67">
-            <v>0.99868834216820901</v>
-          </cell>
+          <cell r="A67"/>
         </row>
         <row r="68">
-          <cell r="C68">
-            <v>0.99188675270736304</v>
-          </cell>
+          <cell r="A68"/>
         </row>
         <row r="69">
-          <cell r="C69">
-            <v>0.98443819460198501</v>
-          </cell>
+          <cell r="A69"/>
         </row>
         <row r="70">
-          <cell r="C70">
-            <v>0.97613259359215399</v>
-          </cell>
+          <cell r="A70"/>
         </row>
         <row r="71">
-          <cell r="C71">
-            <v>0.96759375782616996</v>
-          </cell>
+          <cell r="A71"/>
         </row>
         <row r="72">
           <cell r="A72">
             <v>140</v>
           </cell>
-          <cell r="C72">
-            <v>1.0169813020074401</v>
-          </cell>
         </row>
         <row r="73">
-          <cell r="C73">
-            <v>1.0181974033430099</v>
-          </cell>
+          <cell r="A73"/>
         </row>
         <row r="74">
-          <cell r="C74">
-            <v>1.0187813306292199</v>
-          </cell>
+          <cell r="A74"/>
         </row>
         <row r="75">
-          <cell r="C75">
-            <v>1.01592720229847</v>
-          </cell>
+          <cell r="A75"/>
         </row>
         <row r="76">
-          <cell r="C76">
-            <v>1.01239610612799</v>
-          </cell>
+          <cell r="A76"/>
         </row>
         <row r="77">
-          <cell r="C77">
-            <v>1.0072501883846501</v>
-          </cell>
+          <cell r="A77"/>
         </row>
         <row r="78">
-          <cell r="C78">
-            <v>1.00283754738832</v>
-          </cell>
+          <cell r="A78"/>
         </row>
         <row r="79">
-          <cell r="C79">
-            <v>0.99790750644728499</v>
-          </cell>
+          <cell r="A79"/>
         </row>
         <row r="80">
-          <cell r="C80">
-            <v>0.99227929650956204</v>
-          </cell>
+          <cell r="A80"/>
         </row>
         <row r="81">
-          <cell r="C81">
-            <v>0.986551176643642</v>
-          </cell>
+          <cell r="A81"/>
         </row>
         <row r="82">
           <cell r="A82">
             <v>150</v>
           </cell>
-          <cell r="C82">
-            <v>1.01686851188725</v>
-          </cell>
         </row>
         <row r="83">
-          <cell r="C83">
-            <v>1.01858514184666</v>
-          </cell>
+          <cell r="A83"/>
         </row>
         <row r="84">
-          <cell r="C84">
-            <v>1.01997614009757</v>
-          </cell>
+          <cell r="A84"/>
         </row>
         <row r="85">
-          <cell r="C85">
-            <v>1.0180783652804799</v>
-          </cell>
+          <cell r="A85"/>
         </row>
         <row r="86">
-          <cell r="C86">
-            <v>1.01576437761445</v>
-          </cell>
+          <cell r="A86"/>
         </row>
         <row r="87">
-          <cell r="C87">
-            <v>1.0120695680351399</v>
-          </cell>
+          <cell r="A87"/>
         </row>
         <row r="88">
-          <cell r="C88">
-            <v>1.00917433380764</v>
-          </cell>
+          <cell r="A88"/>
         </row>
         <row r="89">
-          <cell r="C89">
-            <v>1.00587825770477</v>
-          </cell>
+          <cell r="A89"/>
         </row>
         <row r="90">
-          <cell r="C90">
-            <v>1.0019559233976301</v>
-          </cell>
+          <cell r="A90"/>
         </row>
         <row r="91">
-          <cell r="C91">
-            <v>0.99808250281340605</v>
-          </cell>
+          <cell r="A91"/>
         </row>
         <row r="92">
           <cell r="A92">
             <v>160</v>
           </cell>
-          <cell r="C92">
-            <v>1.01674262939303</v>
-          </cell>
         </row>
         <row r="93">
-          <cell r="C93">
-            <v>1.0186615492015501</v>
-          </cell>
+          <cell r="A93"/>
         </row>
         <row r="94">
-          <cell r="C94">
-            <v>1.02017759854987</v>
-          </cell>
+          <cell r="A94"/>
         </row>
         <row r="95">
-          <cell r="C95">
-            <v>1.01904999903432</v>
-          </cell>
+          <cell r="A95"/>
         </row>
         <row r="96">
-          <cell r="C96">
-            <v>1.01745953677765</v>
-          </cell>
+          <cell r="A96"/>
         </row>
         <row r="97">
-          <cell r="C97">
-            <v>1.01468169785137</v>
-          </cell>
+          <cell r="A97"/>
         </row>
         <row r="98">
-          <cell r="C98">
-            <v>1.01270783771669</v>
-          </cell>
+          <cell r="A98"/>
         </row>
         <row r="99">
-          <cell r="C99">
-            <v>1.0104225680880099</v>
-          </cell>
+          <cell r="A99"/>
         </row>
         <row r="100">
-          <cell r="C100">
-            <v>1.0075959934216201</v>
-          </cell>
+          <cell r="A100"/>
         </row>
         <row r="101">
-          <cell r="C101">
-            <v>1.00488065378789</v>
-          </cell>
+          <cell r="A101"/>
         </row>
         <row r="102">
           <cell r="A102">
             <v>170</v>
           </cell>
-          <cell r="C102">
-            <v>1.0165155360782601</v>
-          </cell>
         </row>
         <row r="103">
-          <cell r="C103">
-            <v>1.0184156422686299</v>
-          </cell>
+          <cell r="A103"/>
         </row>
         <row r="104">
-          <cell r="C104">
-            <v>1.0202281490262199</v>
-          </cell>
+          <cell r="A104"/>
         </row>
         <row r="105">
-          <cell r="C105">
-            <v>1.0193818407422699</v>
-          </cell>
+          <cell r="A105"/>
         </row>
         <row r="106">
-          <cell r="C106">
-            <v>1.01809299216662</v>
-          </cell>
+          <cell r="A106"/>
         </row>
         <row r="107">
-          <cell r="C107">
-            <v>1.0159615696853299</v>
-          </cell>
+          <cell r="A107"/>
         </row>
         <row r="108">
-          <cell r="C108">
-            <v>1.0145488633487201</v>
-          </cell>
+          <cell r="A108"/>
         </row>
         <row r="109">
-          <cell r="C109">
-            <v>1.01290475059276</v>
-          </cell>
+          <cell r="A109"/>
         </row>
         <row r="110">
-          <cell r="C110">
-            <v>1.0107767296977599</v>
-          </cell>
+          <cell r="A110"/>
         </row>
         <row r="111">
-          <cell r="C111">
-            <v>1.00880256792098</v>
-          </cell>
+          <cell r="A111"/>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2560,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A40D832-9239-4038-BC34-05E2C56B4E2E}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,7 +1658,6 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <f>IF([1]Sheet1!C12&lt;1,[1]Sheet1!C12,1)</f>
         <v>0.99200311284915599</v>
       </c>
       <c r="D2" s="3">
@@ -2617,7 +1679,6 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <f>IF([1]Sheet1!C13&lt;1,[1]Sheet1!C13,1)</f>
         <v>0.95591371905732903</v>
       </c>
       <c r="D3" s="3">
@@ -2639,7 +1700,6 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <f>IF([1]Sheet1!C14&lt;1,[1]Sheet1!C14,1)</f>
         <v>0.91628772696079397</v>
       </c>
       <c r="D4" s="3">
@@ -2661,7 +1721,6 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <f>IF([1]Sheet1!C15&lt;1,[1]Sheet1!C15,1)</f>
         <v>0.86637725104557295</v>
       </c>
       <c r="D5" s="3">
@@ -2683,7 +1742,6 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <f>IF([1]Sheet1!C16&lt;1,[1]Sheet1!C16,1)</f>
         <v>0.81320113123048099</v>
       </c>
       <c r="D6" s="3">
@@ -2705,7 +1763,6 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <f>IF([1]Sheet1!C17&lt;1,[1]Sheet1!C17,1)</f>
         <v>0.75410984742417098</v>
       </c>
       <c r="D7" s="3">
@@ -2727,7 +1784,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <f>IF([1]Sheet1!C18&lt;1,[1]Sheet1!C18,1)</f>
         <v>0.70679839427612001</v>
       </c>
       <c r="D8" s="3">
@@ -2749,7 +1805,6 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <f>IF([1]Sheet1!C19&lt;1,[1]Sheet1!C19,1)</f>
         <v>0.68364665690639004</v>
       </c>
       <c r="D9" s="3">
@@ -2771,7 +1826,6 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <f>IF([1]Sheet1!C20&lt;1,[1]Sheet1!C20,1)</f>
         <v>0.67433575699959203</v>
       </c>
       <c r="D10" s="3">
@@ -2793,7 +1847,6 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <f>IF([1]Sheet1!C21&lt;1,[1]Sheet1!C21,1)</f>
         <v>0.66997260446043205</v>
       </c>
       <c r="D11" s="3">
@@ -2815,7 +1868,6 @@
         <v>0.01</v>
       </c>
       <c r="C12" s="3">
-        <f>IF([1]Sheet1!C22&lt;1,[1]Sheet1!C22,1)</f>
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -2837,7 +1889,6 @@
         <v>0.02</v>
       </c>
       <c r="C13" s="3">
-        <f>IF([1]Sheet1!C23&lt;1,[1]Sheet1!C23,1)</f>
         <v>0.98175936713918099</v>
       </c>
       <c r="D13" s="3">
@@ -2859,7 +1910,6 @@
         <v>0.03</v>
       </c>
       <c r="C14" s="3">
-        <f>IF([1]Sheet1!C24&lt;1,[1]Sheet1!C24,1)</f>
         <v>0.95804152155923805</v>
       </c>
       <c r="D14" s="3">
@@ -2881,7 +1931,6 @@
         <v>0.04</v>
       </c>
       <c r="C15" s="3">
-        <f>IF([1]Sheet1!C25&lt;1,[1]Sheet1!C25,1)</f>
         <v>0.92600749234618196</v>
       </c>
       <c r="D15" s="3">
@@ -2903,7 +1952,6 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="3">
-        <f>IF([1]Sheet1!C26&lt;1,[1]Sheet1!C26,1)</f>
         <v>0.89048294649772497</v>
       </c>
       <c r="D16" s="3">
@@ -2925,7 +1973,6 @@
         <v>0.06</v>
       </c>
       <c r="C17" s="3">
-        <f>IF([1]Sheet1!C27&lt;1,[1]Sheet1!C27,1)</f>
         <v>0.850932334663423</v>
       </c>
       <c r="D17" s="3">
@@ -2947,7 +1994,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18" s="3">
-        <f>IF([1]Sheet1!C28&lt;1,[1]Sheet1!C28,1)</f>
         <v>0.81228120245662905</v>
       </c>
       <c r="D18" s="3">
@@ -2969,7 +2015,6 @@
         <v>0.08</v>
       </c>
       <c r="C19" s="3">
-        <f>IF([1]Sheet1!C29&lt;1,[1]Sheet1!C29,1)</f>
         <v>0.77182825805989497</v>
       </c>
       <c r="D19" s="3">
@@ -2991,7 +2036,6 @@
         <v>0.09</v>
       </c>
       <c r="C20" s="3">
-        <f>IF([1]Sheet1!C30&lt;1,[1]Sheet1!C30,1)</f>
         <v>0.73224396941999703</v>
       </c>
       <c r="D20" s="3">
@@ -3013,7 +2057,6 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="3">
-        <f>IF([1]Sheet1!C31&lt;1,[1]Sheet1!C31,1)</f>
         <v>0.70160538073992396</v>
       </c>
       <c r="D21" s="3">
@@ -3035,7 +2078,6 @@
         <v>0.01</v>
       </c>
       <c r="C22" s="3">
-        <f>IF([1]Sheet1!C32&lt;1,[1]Sheet1!C32,1)</f>
         <v>1</v>
       </c>
       <c r="D22" s="3">
@@ -3057,7 +2099,6 @@
         <v>0.02</v>
       </c>
       <c r="C23" s="3">
-        <f>IF([1]Sheet1!C33&lt;1,[1]Sheet1!C33,1)</f>
         <v>0.99708673572768403</v>
       </c>
       <c r="D23" s="3">
@@ -3079,7 +2120,6 @@
         <v>0.03</v>
       </c>
       <c r="C24" s="3">
-        <f>IF([1]Sheet1!C34&lt;1,[1]Sheet1!C34,1)</f>
         <v>0.98359728232598398</v>
       </c>
       <c r="D24" s="3">
@@ -3101,7 +2141,6 @@
         <v>0.04</v>
       </c>
       <c r="C25" s="3">
-        <f>IF([1]Sheet1!C35&lt;1,[1]Sheet1!C35,1)</f>
         <v>0.96285952298048605</v>
       </c>
       <c r="D25" s="3">
@@ -3123,7 +2162,6 @@
         <v>0.05</v>
       </c>
       <c r="C26" s="3">
-        <f>IF([1]Sheet1!C36&lt;1,[1]Sheet1!C36,1)</f>
         <v>0.93952649558845402</v>
       </c>
       <c r="D26" s="3">
@@ -3145,7 +2183,6 @@
         <v>0.06</v>
       </c>
       <c r="C27" s="3">
-        <f>IF([1]Sheet1!C37&lt;1,[1]Sheet1!C37,1)</f>
         <v>0.91286389672164103</v>
       </c>
       <c r="D27" s="3">
@@ -3167,7 +2204,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C28" s="3">
-        <f>IF([1]Sheet1!C38&lt;1,[1]Sheet1!C38,1)</f>
         <v>0.88693963709606105</v>
       </c>
       <c r="D28" s="3">
@@ -3189,7 +2225,6 @@
         <v>0.08</v>
       </c>
       <c r="C29" s="3">
-        <f>IF([1]Sheet1!C39&lt;1,[1]Sheet1!C39,1)</f>
         <v>0.85965357038871304</v>
       </c>
       <c r="D29" s="3">
@@ -3211,7 +2246,6 @@
         <v>0.09</v>
       </c>
       <c r="C30" s="3">
-        <f>IF([1]Sheet1!C40&lt;1,[1]Sheet1!C40,1)</f>
         <v>0.83059201378645497</v>
       </c>
       <c r="D30" s="3">
@@ -3233,7 +2267,6 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="3">
-        <f>IF([1]Sheet1!C41&lt;1,[1]Sheet1!C41,1)</f>
         <v>0.80053802995565404</v>
       </c>
       <c r="D31" s="3">
@@ -3255,7 +2288,6 @@
         <v>0.01</v>
       </c>
       <c r="C32" s="3">
-        <f>IF([1]Sheet1!C42&lt;1,[1]Sheet1!C42,1)</f>
         <v>1</v>
       </c>
       <c r="D32" s="3">
@@ -3277,7 +2309,6 @@
         <v>0.02</v>
       </c>
       <c r="C33" s="3">
-        <f>IF([1]Sheet1!C43&lt;1,[1]Sheet1!C43,1)</f>
         <v>1</v>
       </c>
       <c r="D33" s="3">
@@ -3299,7 +2330,6 @@
         <v>0.03</v>
       </c>
       <c r="C34" s="3">
-        <f>IF([1]Sheet1!C44&lt;1,[1]Sheet1!C44,1)</f>
         <v>0.99891191573143301</v>
       </c>
       <c r="D34" s="3">
@@ -3321,7 +2351,6 @@
         <v>0.04</v>
       </c>
       <c r="C35" s="3">
-        <f>IF([1]Sheet1!C45&lt;1,[1]Sheet1!C45,1)</f>
         <v>0.98576752361005504</v>
       </c>
       <c r="D35" s="3">
@@ -3343,7 +2372,6 @@
         <v>0.05</v>
       </c>
       <c r="C36" s="3">
-        <f>IF([1]Sheet1!C46&lt;1,[1]Sheet1!C46,1)</f>
         <v>0.97061261428898604</v>
       </c>
       <c r="D36" s="3">
@@ -3365,7 +2393,6 @@
         <v>0.06</v>
       </c>
       <c r="C37" s="3">
-        <f>IF([1]Sheet1!C47&lt;1,[1]Sheet1!C47,1)</f>
         <v>0.95268342432379005</v>
       </c>
       <c r="D37" s="3">
@@ -3387,7 +2414,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C38" s="3">
-        <f>IF([1]Sheet1!C48&lt;1,[1]Sheet1!C48,1)</f>
         <v>0.93549530026348404</v>
       </c>
       <c r="D38" s="3">
@@ -3409,7 +2435,6 @@
         <v>0.08</v>
       </c>
       <c r="C39" s="3">
-        <f>IF([1]Sheet1!C49&lt;1,[1]Sheet1!C49,1)</f>
         <v>0.91721031859216096</v>
       </c>
       <c r="D39" s="3">
@@ -3431,7 +2456,6 @@
         <v>0.09</v>
       </c>
       <c r="C40" s="3">
-        <f>IF([1]Sheet1!C50&lt;1,[1]Sheet1!C50,1)</f>
         <v>0.897502902023113</v>
       </c>
       <c r="D40" s="3">
@@ -3453,7 +2477,6 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="3">
-        <f>IF([1]Sheet1!C51&lt;1,[1]Sheet1!C51,1)</f>
         <v>0.87700144197890495</v>
       </c>
       <c r="D41" s="3">
@@ -3475,7 +2498,6 @@
         <v>0.01</v>
       </c>
       <c r="C42" s="3">
-        <f>IF([1]Sheet1!C52&lt;1,[1]Sheet1!C52,1)</f>
         <v>1</v>
       </c>
       <c r="D42" s="3">
@@ -3497,7 +2519,6 @@
         <v>0.02</v>
       </c>
       <c r="C43" s="3">
-        <f>IF([1]Sheet1!C53&lt;1,[1]Sheet1!C53,1)</f>
         <v>1</v>
       </c>
       <c r="D43" s="3">
@@ -3519,7 +2540,6 @@
         <v>0.03</v>
       </c>
       <c r="C44" s="3">
-        <f>IF([1]Sheet1!C54&lt;1,[1]Sheet1!C54,1)</f>
         <v>1</v>
       </c>
       <c r="D44" s="3">
@@ -3541,7 +2561,6 @@
         <v>0.04</v>
       </c>
       <c r="C45" s="3">
-        <f>IF([1]Sheet1!C55&lt;1,[1]Sheet1!C55,1)</f>
         <v>0.99979071010599896</v>
       </c>
       <c r="D45" s="3">
@@ -3563,7 +2582,6 @@
         <v>0.05</v>
       </c>
       <c r="C46" s="3">
-        <f>IF([1]Sheet1!C56&lt;1,[1]Sheet1!C56,1)</f>
         <v>0.99000671175007704</v>
       </c>
       <c r="D46" s="3">
@@ -3585,7 +2603,6 @@
         <v>0.06</v>
       </c>
       <c r="C47" s="3">
-        <f>IF([1]Sheet1!C57&lt;1,[1]Sheet1!C57,1)</f>
         <v>0.97808872796686797</v>
       </c>
       <c r="D47" s="3">
@@ -3607,7 +2624,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C48" s="3">
-        <f>IF([1]Sheet1!C58&lt;1,[1]Sheet1!C58,1)</f>
         <v>0.96648128158386704</v>
       </c>
       <c r="D48" s="3">
@@ -3629,7 +2645,6 @@
         <v>0.08</v>
       </c>
       <c r="C49" s="3">
-        <f>IF([1]Sheet1!C59&lt;1,[1]Sheet1!C59,1)</f>
         <v>0.954306275336957</v>
       </c>
       <c r="D49" s="3">
@@ -3651,7 +2666,6 @@
         <v>0.09</v>
       </c>
       <c r="C50" s="3">
-        <f>IF([1]Sheet1!C60&lt;1,[1]Sheet1!C60,1)</f>
         <v>0.94096160503943804</v>
       </c>
       <c r="D50" s="3">
@@ -3673,7 +2687,6 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="3">
-        <f>IF([1]Sheet1!C61&lt;1,[1]Sheet1!C61,1)</f>
         <v>0.92707351855801801</v>
       </c>
       <c r="D51" s="3">
@@ -3695,7 +2708,6 @@
         <v>0.01</v>
       </c>
       <c r="C52" s="3">
-        <f>IF([1]Sheet1!C62&lt;1,[1]Sheet1!C62,1)</f>
         <v>1</v>
       </c>
       <c r="D52" s="3">
@@ -3717,7 +2729,6 @@
         <v>0.02</v>
       </c>
       <c r="C53" s="3">
-        <f>IF([1]Sheet1!C63&lt;1,[1]Sheet1!C63,1)</f>
         <v>1</v>
       </c>
       <c r="D53" s="3">
@@ -3739,7 +2750,6 @@
         <v>0.03</v>
       </c>
       <c r="C54" s="3">
-        <f>IF([1]Sheet1!C64&lt;1,[1]Sheet1!C64,1)</f>
         <v>1</v>
       </c>
       <c r="D54" s="3">
@@ -3761,7 +2771,6 @@
         <v>0.04</v>
       </c>
       <c r="C55" s="3">
-        <f>IF([1]Sheet1!C65&lt;1,[1]Sheet1!C65,1)</f>
         <v>1</v>
       </c>
       <c r="D55" s="3">
@@ -3783,7 +2792,6 @@
         <v>0.05</v>
       </c>
       <c r="C56" s="3">
-        <f>IF([1]Sheet1!C66&lt;1,[1]Sheet1!C66,1)</f>
         <v>1</v>
       </c>
       <c r="D56" s="3">
@@ -3805,7 +2813,6 @@
         <v>0.06</v>
       </c>
       <c r="C57" s="3">
-        <f>IF([1]Sheet1!C67&lt;1,[1]Sheet1!C67,1)</f>
         <v>0.994172272786633</v>
       </c>
       <c r="D57" s="3">
@@ -3827,7 +2834,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C58" s="3">
-        <f>IF([1]Sheet1!C68&lt;1,[1]Sheet1!C68,1)</f>
         <v>0.98667844579707198</v>
       </c>
       <c r="D58" s="3">
@@ -3849,7 +2855,6 @@
         <v>0.08</v>
       </c>
       <c r="C59" s="3">
-        <f>IF([1]Sheet1!C69&lt;1,[1]Sheet1!C69,1)</f>
         <v>0.97850708608633497</v>
       </c>
       <c r="D59" s="3">
@@ -3871,7 +2876,6 @@
         <v>0.09</v>
       </c>
       <c r="C60" s="3">
-        <f>IF([1]Sheet1!C70&lt;1,[1]Sheet1!C70,1)</f>
         <v>0.96954441646520395</v>
       </c>
       <c r="D60" s="3">
@@ -3893,7 +2897,6 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="3">
-        <f>IF([1]Sheet1!C71&lt;1,[1]Sheet1!C71,1)</f>
         <v>0.96023245816846003</v>
       </c>
       <c r="D61" s="3">
@@ -3915,7 +2918,6 @@
         <v>0.01</v>
       </c>
       <c r="C62" s="3">
-        <f>IF([1]Sheet1!C72&lt;1,[1]Sheet1!C72,1)</f>
         <v>1</v>
       </c>
       <c r="D62" s="3">
@@ -3937,7 +2939,6 @@
         <v>0.02</v>
       </c>
       <c r="C63" s="3">
-        <f>IF([1]Sheet1!C73&lt;1,[1]Sheet1!C73,1)</f>
         <v>1</v>
       </c>
       <c r="D63" s="3">
@@ -3959,7 +2960,6 @@
         <v>0.03</v>
       </c>
       <c r="C64" s="3">
-        <f>IF([1]Sheet1!C74&lt;1,[1]Sheet1!C74,1)</f>
         <v>1</v>
       </c>
       <c r="D64" s="3">
@@ -3981,7 +2981,6 @@
         <v>0.04</v>
       </c>
       <c r="C65" s="3">
-        <f>IF([1]Sheet1!C75&lt;1,[1]Sheet1!C75,1)</f>
         <v>1</v>
       </c>
       <c r="D65" s="3">
@@ -4003,7 +3002,6 @@
         <v>0.05</v>
       </c>
       <c r="C66" s="3">
-        <f>IF([1]Sheet1!C76&lt;1,[1]Sheet1!C76,1)</f>
         <v>1</v>
       </c>
       <c r="D66" s="3">
@@ -4025,7 +3023,6 @@
         <v>0.06</v>
       </c>
       <c r="C67" s="3">
-        <f>IF([1]Sheet1!C77&lt;1,[1]Sheet1!C77,1)</f>
         <v>1</v>
       </c>
       <c r="D67" s="3">
@@ -4047,7 +3044,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C68" s="3">
-        <f>IF([1]Sheet1!C78&lt;1,[1]Sheet1!C78,1)</f>
         <v>0.999039378113867</v>
       </c>
       <c r="D68" s="3">
@@ -4069,7 +3065,6 @@
         <v>0.08</v>
       </c>
       <c r="C69" s="3">
-        <f>IF([1]Sheet1!C79&lt;1,[1]Sheet1!C79,1)</f>
         <v>0.99367140715744295</v>
       </c>
       <c r="D69" s="3">
@@ -4091,7 +3086,6 @@
         <v>0.09</v>
       </c>
       <c r="C70" s="3">
-        <f>IF([1]Sheet1!C80&lt;1,[1]Sheet1!C80,1)</f>
         <v>0.98766483719380804</v>
       </c>
       <c r="D70" s="3">
@@ -4113,7 +3107,6 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="3">
-        <f>IF([1]Sheet1!C81&lt;1,[1]Sheet1!C81,1)</f>
         <v>0.98146213795674797</v>
       </c>
       <c r="D71" s="3">
@@ -4135,7 +3128,6 @@
         <v>0.01</v>
       </c>
       <c r="C72" s="3">
-        <f>IF([1]Sheet1!C82&lt;1,[1]Sheet1!C82,1)</f>
         <v>1</v>
       </c>
       <c r="D72" s="3">
@@ -4157,7 +3149,6 @@
         <v>0.02</v>
       </c>
       <c r="C73" s="3">
-        <f>IF([1]Sheet1!C83&lt;1,[1]Sheet1!C83,1)</f>
         <v>1</v>
       </c>
       <c r="D73" s="3">
@@ -4179,7 +3170,6 @@
         <v>0.03</v>
       </c>
       <c r="C74" s="3">
-        <f>IF([1]Sheet1!C84&lt;1,[1]Sheet1!C84,1)</f>
         <v>1</v>
       </c>
       <c r="D74" s="3">
@@ -4201,7 +3191,6 @@
         <v>0.04</v>
       </c>
       <c r="C75" s="3">
-        <f>IF([1]Sheet1!C85&lt;1,[1]Sheet1!C85,1)</f>
         <v>1</v>
       </c>
       <c r="D75" s="3">
@@ -4223,7 +3212,6 @@
         <v>0.05</v>
       </c>
       <c r="C76" s="3">
-        <f>IF([1]Sheet1!C86&lt;1,[1]Sheet1!C86,1)</f>
         <v>1</v>
       </c>
       <c r="D76" s="3">
@@ -4245,7 +3233,6 @@
         <v>0.06</v>
       </c>
       <c r="C77" s="3">
-        <f>IF([1]Sheet1!C87&lt;1,[1]Sheet1!C87,1)</f>
         <v>1</v>
       </c>
       <c r="D77" s="3">
@@ -4267,7 +3254,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C78" s="3">
-        <f>IF([1]Sheet1!C88&lt;1,[1]Sheet1!C88,1)</f>
         <v>1</v>
       </c>
       <c r="D78" s="3">
@@ -4289,7 +3275,6 @@
         <v>0.08</v>
       </c>
       <c r="C79" s="3">
-        <f>IF([1]Sheet1!C89&lt;1,[1]Sheet1!C89,1)</f>
         <v>1</v>
       </c>
       <c r="D79" s="3">
@@ -4311,7 +3296,6 @@
         <v>0.09</v>
       </c>
       <c r="C80" s="3">
-        <f>IF([1]Sheet1!C90&lt;1,[1]Sheet1!C90,1)</f>
         <v>0.99858001914136996</v>
       </c>
       <c r="D80" s="3">
@@ -4333,7 +3317,6 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="3">
-        <f>IF([1]Sheet1!C91&lt;1,[1]Sheet1!C91,1)</f>
         <v>0.99442731368113801</v>
       </c>
       <c r="D81" s="3">
@@ -4355,7 +3338,6 @@
         <v>0.01</v>
       </c>
       <c r="C82" s="3">
-        <f>IF([1]Sheet1!C92&lt;1,[1]Sheet1!C92,1)</f>
         <v>1</v>
       </c>
       <c r="D82" s="3">
@@ -4377,7 +3359,6 @@
         <v>0.02</v>
       </c>
       <c r="C83" s="3">
-        <f>IF([1]Sheet1!C93&lt;1,[1]Sheet1!C93,1)</f>
         <v>1</v>
       </c>
       <c r="D83" s="3">
@@ -4399,7 +3380,6 @@
         <v>0.03</v>
       </c>
       <c r="C84" s="3">
-        <f>IF([1]Sheet1!C94&lt;1,[1]Sheet1!C94,1)</f>
         <v>1</v>
       </c>
       <c r="D84" s="3">
@@ -4421,7 +3401,6 @@
         <v>0.04</v>
       </c>
       <c r="C85" s="3">
-        <f>IF([1]Sheet1!C95&lt;1,[1]Sheet1!C95,1)</f>
         <v>1</v>
       </c>
       <c r="D85" s="3">
@@ -4443,7 +3422,6 @@
         <v>0.05</v>
       </c>
       <c r="C86" s="3">
-        <f>IF([1]Sheet1!C96&lt;1,[1]Sheet1!C96,1)</f>
         <v>1</v>
       </c>
       <c r="D86" s="3">
@@ -4465,7 +3443,6 @@
         <v>0.06</v>
       </c>
       <c r="C87" s="3">
-        <f>IF([1]Sheet1!C97&lt;1,[1]Sheet1!C97,1)</f>
         <v>1</v>
       </c>
       <c r="D87" s="3">
@@ -4487,7 +3464,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C88" s="3">
-        <f>IF([1]Sheet1!C98&lt;1,[1]Sheet1!C98,1)</f>
         <v>1</v>
       </c>
       <c r="D88" s="3">
@@ -4509,7 +3485,6 @@
         <v>0.08</v>
       </c>
       <c r="C89" s="3">
-        <f>IF([1]Sheet1!C99&lt;1,[1]Sheet1!C99,1)</f>
         <v>1</v>
       </c>
       <c r="D89" s="3">
@@ -4531,7 +3506,6 @@
         <v>0.09</v>
       </c>
       <c r="C90" s="3">
-        <f>IF([1]Sheet1!C100&lt;1,[1]Sheet1!C100,1)</f>
         <v>1</v>
       </c>
       <c r="D90" s="3">
@@ -4553,7 +3527,6 @@
         <v>0.1</v>
       </c>
       <c r="C91" s="3">
-        <f>IF([1]Sheet1!C101&lt;1,[1]Sheet1!C101,1)</f>
         <v>1</v>
       </c>
       <c r="D91" s="3">
@@ -4575,7 +3548,6 @@
         <v>0.01</v>
       </c>
       <c r="C92" s="3">
-        <f>IF([1]Sheet1!C102&lt;1,[1]Sheet1!C102,1)</f>
         <v>1</v>
       </c>
       <c r="D92" s="3">
@@ -4597,7 +3569,6 @@
         <v>0.02</v>
       </c>
       <c r="C93" s="3">
-        <f>IF([1]Sheet1!C103&lt;1,[1]Sheet1!C103,1)</f>
         <v>1</v>
       </c>
       <c r="D93" s="3">
@@ -4619,7 +3590,6 @@
         <v>0.03</v>
       </c>
       <c r="C94" s="3">
-        <f>IF([1]Sheet1!C104&lt;1,[1]Sheet1!C104,1)</f>
         <v>1</v>
       </c>
       <c r="D94" s="3">
@@ -4641,7 +3611,6 @@
         <v>0.04</v>
       </c>
       <c r="C95" s="3">
-        <f>IF([1]Sheet1!C105&lt;1,[1]Sheet1!C105,1)</f>
         <v>1</v>
       </c>
       <c r="D95" s="3">
@@ -4663,7 +3632,6 @@
         <v>0.05</v>
       </c>
       <c r="C96" s="3">
-        <f>IF([1]Sheet1!C106&lt;1,[1]Sheet1!C106,1)</f>
         <v>1</v>
       </c>
       <c r="D96" s="3">
@@ -4685,7 +3653,6 @@
         <v>0.06</v>
       </c>
       <c r="C97" s="3">
-        <f>IF([1]Sheet1!C107&lt;1,[1]Sheet1!C107,1)</f>
         <v>1</v>
       </c>
       <c r="D97" s="3">
@@ -4707,7 +3674,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C98" s="3">
-        <f>IF([1]Sheet1!C108&lt;1,[1]Sheet1!C108,1)</f>
         <v>1</v>
       </c>
       <c r="D98" s="3">
@@ -4729,7 +3695,6 @@
         <v>0.08</v>
       </c>
       <c r="C99" s="3">
-        <f>IF([1]Sheet1!C109&lt;1,[1]Sheet1!C109,1)</f>
         <v>1</v>
       </c>
       <c r="D99" s="3">
@@ -4751,7 +3716,6 @@
         <v>0.09</v>
       </c>
       <c r="C100" s="3">
-        <f>IF([1]Sheet1!C110&lt;1,[1]Sheet1!C110,1)</f>
         <v>1</v>
       </c>
       <c r="D100" s="3">
@@ -4773,7 +3737,6 @@
         <v>0.1</v>
       </c>
       <c r="C101" s="3">
-        <f>IF([1]Sheet1!C111&lt;1,[1]Sheet1!C111,1)</f>
         <v>1</v>
       </c>
       <c r="D101" s="3">
@@ -4796,7 +3759,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2:C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4823,14 +3786,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <f>IF([3]Sheet1!A12=0,A1,[3]Sheet1!A12)</f>
+        <f>IF([2]Sheet1!A12=0,A1,[2]Sheet1!A12)</f>
         <v>80</v>
       </c>
       <c r="B2" s="1">
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <f>IF([3]Sheet1!C12&gt;1,1,[3]Sheet1!C12)</f>
         <v>0.99704092294161395</v>
       </c>
       <c r="D2" s="3">
@@ -4845,14 +3807,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <f>IF([3]Sheet1!A13=0,A2,[3]Sheet1!A13)</f>
+        <f>IF([2]Sheet1!A13=0,A2,[2]Sheet1!A13)</f>
         <v>80</v>
       </c>
       <c r="B3" s="1">
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <f>IF([3]Sheet1!C13&gt;1,1,[3]Sheet1!C13)</f>
         <v>0.96575617807102199</v>
       </c>
       <c r="D3" s="3">
@@ -4867,14 +3828,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <f>IF([3]Sheet1!A14=0,A3,[3]Sheet1!A14)</f>
+        <f>IF([2]Sheet1!A14=0,A3,[2]Sheet1!A14)</f>
         <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <f>IF([3]Sheet1!C14&gt;1,1,[3]Sheet1!C14)</f>
         <v>0.93016594591624402</v>
       </c>
       <c r="D4" s="3">
@@ -4889,14 +3849,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <f>IF([3]Sheet1!A15=0,A4,[3]Sheet1!A15)</f>
+        <f>IF([2]Sheet1!A15=0,A4,[2]Sheet1!A15)</f>
         <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <f>IF([3]Sheet1!C15&gt;1,1,[3]Sheet1!C15)</f>
         <v>0.88544330501401503</v>
       </c>
       <c r="D5" s="3">
@@ -4911,14 +3870,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <f>IF([3]Sheet1!A16=0,A5,[3]Sheet1!A16)</f>
+        <f>IF([2]Sheet1!A16=0,A5,[2]Sheet1!A16)</f>
         <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <f>IF([3]Sheet1!C16&gt;1,1,[3]Sheet1!C16)</f>
         <v>0.83773849438056003</v>
       </c>
       <c r="D6" s="3">
@@ -4933,14 +3891,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <f>IF([3]Sheet1!A17=0,A6,[3]Sheet1!A17)</f>
+        <f>IF([2]Sheet1!A17=0,A6,[2]Sheet1!A17)</f>
         <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <f>IF([3]Sheet1!C17&gt;1,1,[3]Sheet1!C17)</f>
         <v>0.78427732329303101</v>
       </c>
       <c r="D7" s="3">
@@ -4955,14 +3912,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <f>IF([3]Sheet1!A18=0,A7,[3]Sheet1!A18)</f>
+        <f>IF([2]Sheet1!A18=0,A7,[2]Sheet1!A18)</f>
         <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <f>IF([3]Sheet1!C18&gt;1,1,[3]Sheet1!C18)</f>
         <v>0.73724654595307204</v>
       </c>
       <c r="D8" s="3">
@@ -4977,14 +3933,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <f>IF([3]Sheet1!A19=0,A8,[3]Sheet1!A19)</f>
+        <f>IF([2]Sheet1!A19=0,A8,[2]Sheet1!A19)</f>
         <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <f>IF([3]Sheet1!C19&gt;1,1,[3]Sheet1!C19)</f>
         <v>0.70729112923925397</v>
       </c>
       <c r="D9" s="3">
@@ -4999,14 +3954,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <f>IF([3]Sheet1!A20=0,A9,[3]Sheet1!A20)</f>
+        <f>IF([2]Sheet1!A20=0,A9,[2]Sheet1!A20)</f>
         <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <f>IF([3]Sheet1!C20&gt;1,1,[3]Sheet1!C20)</f>
         <v>0.69305006974676397</v>
       </c>
       <c r="D10" s="3">
@@ -5021,14 +3975,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <f>IF([3]Sheet1!A21=0,A10,[3]Sheet1!A21)</f>
+        <f>IF([2]Sheet1!A21=0,A10,[2]Sheet1!A21)</f>
         <v>80</v>
       </c>
       <c r="B11" s="1">
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <f>IF([3]Sheet1!C21&gt;1,1,[3]Sheet1!C21)</f>
         <v>0.68665605833613497</v>
       </c>
       <c r="D11" s="3">
@@ -5043,14 +3996,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <f>IF([3]Sheet1!A22=0,A11,[3]Sheet1!A22)</f>
+        <f>IF([2]Sheet1!A22=0,A11,[2]Sheet1!A22)</f>
         <v>90</v>
       </c>
       <c r="B12" s="1">
         <v>0.01</v>
       </c>
       <c r="C12" s="3">
-        <f>IF([3]Sheet1!C22&gt;1,1,[3]Sheet1!C22)</f>
         <v>1</v>
       </c>
       <c r="D12" s="3">
@@ -5065,14 +4017,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <f>IF([3]Sheet1!A23=0,A12,[3]Sheet1!A23)</f>
+        <f>IF([2]Sheet1!A23=0,A12,[2]Sheet1!A23)</f>
         <v>90</v>
       </c>
       <c r="B13" s="1">
         <v>0.02</v>
       </c>
       <c r="C13" s="3">
-        <f>IF([3]Sheet1!C23&gt;1,1,[3]Sheet1!C23)</f>
         <v>0.98862263940851602</v>
       </c>
       <c r="D13" s="3">
@@ -5087,14 +4038,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <f>IF([3]Sheet1!A24=0,A13,[3]Sheet1!A24)</f>
+        <f>IF([2]Sheet1!A24=0,A13,[2]Sheet1!A24)</f>
         <v>90</v>
       </c>
       <c r="B14" s="1">
         <v>0.03</v>
       </c>
       <c r="C14" s="3">
-        <f>IF([3]Sheet1!C24&gt;1,1,[3]Sheet1!C24)</f>
         <v>0.96737062434661902</v>
       </c>
       <c r="D14" s="3">
@@ -5109,14 +4059,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <f>IF([3]Sheet1!A25=0,A14,[3]Sheet1!A25)</f>
+        <f>IF([2]Sheet1!A25=0,A14,[2]Sheet1!A25)</f>
         <v>90</v>
       </c>
       <c r="B15" s="1">
         <v>0.04</v>
       </c>
       <c r="C15" s="3">
-        <f>IF([3]Sheet1!C25&gt;1,1,[3]Sheet1!C25)</f>
         <v>0.93867086708421599</v>
       </c>
       <c r="D15" s="3">
@@ -5131,14 +4080,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <f>IF([3]Sheet1!A26=0,A15,[3]Sheet1!A26)</f>
+        <f>IF([2]Sheet1!A26=0,A15,[2]Sheet1!A26)</f>
         <v>90</v>
       </c>
       <c r="B16" s="1">
         <v>0.05</v>
       </c>
       <c r="C16" s="3">
-        <f>IF([3]Sheet1!C26&gt;1,1,[3]Sheet1!C26)</f>
         <v>0.90669553007735304</v>
       </c>
       <c r="D16" s="3">
@@ -5153,14 +4101,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <f>IF([3]Sheet1!A27=0,A16,[3]Sheet1!A27)</f>
+        <f>IF([2]Sheet1!A27=0,A16,[2]Sheet1!A27)</f>
         <v>90</v>
       </c>
       <c r="B17" s="1">
         <v>0.06</v>
       </c>
       <c r="C17" s="3">
-        <f>IF([3]Sheet1!C27&gt;1,1,[3]Sheet1!C27)</f>
         <v>0.87074638426241802</v>
       </c>
       <c r="D17" s="3">
@@ -5175,14 +4122,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <f>IF([3]Sheet1!A28=0,A17,[3]Sheet1!A28)</f>
+        <f>IF([2]Sheet1!A28=0,A17,[2]Sheet1!A28)</f>
         <v>90</v>
       </c>
       <c r="B18" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18" s="3">
-        <f>IF([3]Sheet1!C28&gt;1,1,[3]Sheet1!C28)</f>
         <v>0.83605957761035499</v>
       </c>
       <c r="D18" s="3">
@@ -5197,14 +4143,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
-        <f>IF([3]Sheet1!A29=0,A18,[3]Sheet1!A29)</f>
+        <f>IF([2]Sheet1!A29=0,A18,[2]Sheet1!A29)</f>
         <v>90</v>
       </c>
       <c r="B19" s="1">
         <v>0.08</v>
       </c>
       <c r="C19" s="3">
-        <f>IF([3]Sheet1!C29&gt;1,1,[3]Sheet1!C29)</f>
         <v>0.79977042635291995</v>
       </c>
       <c r="D19" s="3">
@@ -5219,14 +4164,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
-        <f>IF([3]Sheet1!A30=0,A19,[3]Sheet1!A30)</f>
+        <f>IF([2]Sheet1!A30=0,A19,[2]Sheet1!A30)</f>
         <v>90</v>
       </c>
       <c r="B20" s="1">
         <v>0.09</v>
       </c>
       <c r="C20" s="3">
-        <f>IF([3]Sheet1!C30&gt;1,1,[3]Sheet1!C30)</f>
         <v>0.76219401603523296</v>
       </c>
       <c r="D20" s="3">
@@ -5241,14 +4185,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
-        <f>IF([3]Sheet1!A31=0,A20,[3]Sheet1!A31)</f>
+        <f>IF([2]Sheet1!A31=0,A20,[2]Sheet1!A31)</f>
         <v>90</v>
       </c>
       <c r="B21" s="1">
         <v>0.1</v>
       </c>
       <c r="C21" s="3">
-        <f>IF([3]Sheet1!C31&gt;1,1,[3]Sheet1!C31)</f>
         <v>0.72919688702055196</v>
       </c>
       <c r="D21" s="3">
@@ -5263,14 +4206,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
-        <f>IF([3]Sheet1!A32=0,A21,[3]Sheet1!A32)</f>
+        <f>IF([2]Sheet1!A32=0,A21,[2]Sheet1!A32)</f>
         <v>100</v>
       </c>
       <c r="B22" s="1">
         <v>0.01</v>
       </c>
       <c r="C22" s="3">
-        <f>IF([3]Sheet1!C32&gt;1,1,[3]Sheet1!C32)</f>
         <v>1</v>
       </c>
       <c r="D22" s="3">
@@ -5285,14 +4227,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
-        <f>IF([3]Sheet1!A33=0,A22,[3]Sheet1!A33)</f>
+        <f>IF([2]Sheet1!A33=0,A22,[2]Sheet1!A33)</f>
         <v>100</v>
       </c>
       <c r="B23" s="1">
         <v>0.02</v>
       </c>
       <c r="C23" s="3">
-        <f>IF([3]Sheet1!C33&gt;1,1,[3]Sheet1!C33)</f>
         <v>1</v>
       </c>
       <c r="D23" s="3">
@@ -5307,14 +4248,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
-        <f>IF([3]Sheet1!A34=0,A23,[3]Sheet1!A34)</f>
+        <f>IF([2]Sheet1!A34=0,A23,[2]Sheet1!A34)</f>
         <v>100</v>
       </c>
       <c r="B24" s="1">
         <v>0.03</v>
       </c>
       <c r="C24" s="3">
-        <f>IF([3]Sheet1!C34&gt;1,1,[3]Sheet1!C34)</f>
         <v>0.99007656847706604</v>
       </c>
       <c r="D24" s="3">
@@ -5329,14 +4269,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
-        <f>IF([3]Sheet1!A35=0,A24,[3]Sheet1!A35)</f>
+        <f>IF([2]Sheet1!A35=0,A24,[2]Sheet1!A35)</f>
         <v>100</v>
       </c>
       <c r="B25" s="1">
         <v>0.04</v>
       </c>
       <c r="C25" s="3">
-        <f>IF([3]Sheet1!C35&gt;1,1,[3]Sheet1!C35)</f>
         <v>0.97150547960612499</v>
       </c>
       <c r="D25" s="3">
@@ -5351,14 +4290,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
-        <f>IF([3]Sheet1!A36=0,A25,[3]Sheet1!A36)</f>
+        <f>IF([2]Sheet1!A36=0,A25,[2]Sheet1!A36)</f>
         <v>100</v>
       </c>
       <c r="B26" s="1">
         <v>0.05</v>
       </c>
       <c r="C26" s="3">
-        <f>IF([3]Sheet1!C36&gt;1,1,[3]Sheet1!C36)</f>
         <v>0.95046186371156205</v>
       </c>
       <c r="D26" s="3">
@@ -5373,14 +4311,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
-        <f>IF([3]Sheet1!A37=0,A26,[3]Sheet1!A37)</f>
+        <f>IF([2]Sheet1!A37=0,A26,[2]Sheet1!A37)</f>
         <v>100</v>
       </c>
       <c r="B27" s="1">
         <v>0.06</v>
       </c>
       <c r="C27" s="3">
-        <f>IF([3]Sheet1!C37&gt;1,1,[3]Sheet1!C37)</f>
         <v>0.92609159104239303</v>
       </c>
       <c r="D27" s="3">
@@ -5395,14 +4332,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
-        <f>IF([3]Sheet1!A38=0,A27,[3]Sheet1!A38)</f>
+        <f>IF([2]Sheet1!A38=0,A27,[2]Sheet1!A38)</f>
         <v>100</v>
       </c>
       <c r="B28" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C28" s="3">
-        <f>IF([3]Sheet1!C38&gt;1,1,[3]Sheet1!C38)</f>
         <v>0.90275924979252398</v>
       </c>
       <c r="D28" s="3">
@@ -5417,14 +4353,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <f>IF([3]Sheet1!A39=0,A28,[3]Sheet1!A39)</f>
+        <f>IF([2]Sheet1!A39=0,A28,[2]Sheet1!A39)</f>
         <v>100</v>
       </c>
       <c r="B29" s="1">
         <v>0.08</v>
       </c>
       <c r="C29" s="3">
-        <f>IF([3]Sheet1!C39&gt;1,1,[3]Sheet1!C39)</f>
         <v>0.87814726533785203</v>
       </c>
       <c r="D29" s="3">
@@ -5439,14 +4374,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <f>IF([3]Sheet1!A40=0,A29,[3]Sheet1!A40)</f>
+        <f>IF([2]Sheet1!A40=0,A29,[2]Sheet1!A40)</f>
         <v>100</v>
       </c>
       <c r="B30" s="1">
         <v>0.09</v>
       </c>
       <c r="C30" s="3">
-        <f>IF([3]Sheet1!C40&gt;1,1,[3]Sheet1!C40)</f>
         <v>0.85171145443365504</v>
       </c>
       <c r="D30" s="3">
@@ -5461,14 +4395,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <f>IF([3]Sheet1!A41=0,A30,[3]Sheet1!A41)</f>
+        <f>IF([2]Sheet1!A41=0,A30,[2]Sheet1!A41)</f>
         <v>100</v>
       </c>
       <c r="B31" s="1">
         <v>0.1</v>
       </c>
       <c r="C31" s="3">
-        <f>IF([3]Sheet1!C41&gt;1,1,[3]Sheet1!C41)</f>
         <v>0.82426531366278799</v>
       </c>
       <c r="D31" s="3">
@@ -5483,14 +4416,13 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <f>IF([3]Sheet1!A42=0,A31,[3]Sheet1!A42)</f>
+        <f>IF([2]Sheet1!A42=0,A31,[2]Sheet1!A42)</f>
         <v>110</v>
       </c>
       <c r="B32" s="1">
         <v>0.01</v>
       </c>
       <c r="C32" s="3">
-        <f>IF([3]Sheet1!C42&gt;1,1,[3]Sheet1!C42)</f>
         <v>1</v>
       </c>
       <c r="D32" s="3">
@@ -5505,14 +4437,13 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <f>IF([3]Sheet1!A43=0,A32,[3]Sheet1!A43)</f>
+        <f>IF([2]Sheet1!A43=0,A32,[2]Sheet1!A43)</f>
         <v>110</v>
       </c>
       <c r="B33" s="1">
         <v>0.02</v>
       </c>
       <c r="C33" s="3">
-        <f>IF([3]Sheet1!C43&gt;1,1,[3]Sheet1!C43)</f>
         <v>1</v>
       </c>
       <c r="D33" s="3">
@@ -5527,14 +4458,13 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <f>IF([3]Sheet1!A44=0,A33,[3]Sheet1!A44)</f>
+        <f>IF([2]Sheet1!A44=0,A33,[2]Sheet1!A44)</f>
         <v>110</v>
       </c>
       <c r="B34" s="1">
         <v>0.03</v>
       </c>
       <c r="C34" s="3">
-        <f>IF([3]Sheet1!C44&gt;1,1,[3]Sheet1!C44)</f>
         <v>1</v>
       </c>
       <c r="D34" s="3">
@@ -5549,14 +4479,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <f>IF([3]Sheet1!A45=0,A34,[3]Sheet1!A45)</f>
+        <f>IF([2]Sheet1!A45=0,A34,[2]Sheet1!A45)</f>
         <v>110</v>
       </c>
       <c r="B35" s="1">
         <v>0.04</v>
       </c>
       <c r="C35" s="3">
-        <f>IF([3]Sheet1!C45&gt;1,1,[3]Sheet1!C45)</f>
         <v>0.99185484035969895</v>
       </c>
       <c r="D35" s="3">
@@ -5571,14 +4500,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <f>IF([3]Sheet1!A46=0,A35,[3]Sheet1!A46)</f>
+        <f>IF([2]Sheet1!A46=0,A35,[2]Sheet1!A46)</f>
         <v>110</v>
       </c>
       <c r="B36" s="1">
         <v>0.05</v>
       </c>
       <c r="C36" s="3">
-        <f>IF([3]Sheet1!C46&gt;1,1,[3]Sheet1!C46)</f>
         <v>0.97818210507694703</v>
       </c>
       <c r="D36" s="3">
@@ -5593,14 +4521,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <f>IF([3]Sheet1!A47=0,A36,[3]Sheet1!A47)</f>
+        <f>IF([2]Sheet1!A47=0,A36,[2]Sheet1!A47)</f>
         <v>110</v>
       </c>
       <c r="B37" s="1">
         <v>0.06</v>
       </c>
       <c r="C37" s="3">
-        <f>IF([3]Sheet1!C47&gt;1,1,[3]Sheet1!C47)</f>
         <v>0.96169634106093205</v>
       </c>
       <c r="D37" s="3">
@@ -5615,14 +4542,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <f>IF([3]Sheet1!A48=0,A37,[3]Sheet1!A48)</f>
+        <f>IF([2]Sheet1!A48=0,A37,[2]Sheet1!A48)</f>
         <v>110</v>
       </c>
       <c r="B38" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C38" s="3">
-        <f>IF([3]Sheet1!C48&gt;1,1,[3]Sheet1!C48)</f>
         <v>0.94620290839374899</v>
       </c>
       <c r="D38" s="3">
@@ -5637,14 +4563,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <f>IF([3]Sheet1!A49=0,A38,[3]Sheet1!A49)</f>
+        <f>IF([2]Sheet1!A49=0,A38,[2]Sheet1!A49)</f>
         <v>110</v>
       </c>
       <c r="B39" s="1">
         <v>0.08</v>
       </c>
       <c r="C39" s="3">
-        <f>IF([3]Sheet1!C49&gt;1,1,[3]Sheet1!C49)</f>
         <v>0.92965750255119395</v>
       </c>
       <c r="D39" s="3">
@@ -5659,14 +4584,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
-        <f>IF([3]Sheet1!A50=0,A39,[3]Sheet1!A50)</f>
+        <f>IF([2]Sheet1!A50=0,A39,[2]Sheet1!A50)</f>
         <v>110</v>
       </c>
       <c r="B40" s="1">
         <v>0.09</v>
       </c>
       <c r="C40" s="3">
-        <f>IF([3]Sheet1!C50&gt;1,1,[3]Sheet1!C50)</f>
         <v>0.91162907526414505</v>
       </c>
       <c r="D40" s="3">
@@ -5681,14 +4605,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
-        <f>IF([3]Sheet1!A51=0,A40,[3]Sheet1!A51)</f>
+        <f>IF([2]Sheet1!A51=0,A40,[2]Sheet1!A51)</f>
         <v>110</v>
       </c>
       <c r="B41" s="1">
         <v>0.1</v>
       </c>
       <c r="C41" s="3">
-        <f>IF([3]Sheet1!C51&gt;1,1,[3]Sheet1!C51)</f>
         <v>0.89300738146496905</v>
       </c>
       <c r="D41" s="3">
@@ -5703,14 +4626,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
-        <f>IF([3]Sheet1!A52=0,A41,[3]Sheet1!A52)</f>
+        <f>IF([2]Sheet1!A52=0,A41,[2]Sheet1!A52)</f>
         <v>120</v>
       </c>
       <c r="B42" s="1">
         <v>0.01</v>
       </c>
       <c r="C42" s="3">
-        <f>IF([3]Sheet1!C52&gt;1,1,[3]Sheet1!C52)</f>
         <v>1</v>
       </c>
       <c r="D42" s="3">
@@ -5725,14 +4647,13 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
-        <f>IF([3]Sheet1!A53=0,A42,[3]Sheet1!A53)</f>
+        <f>IF([2]Sheet1!A53=0,A42,[2]Sheet1!A53)</f>
         <v>120</v>
       </c>
       <c r="B43" s="1">
         <v>0.02</v>
       </c>
       <c r="C43" s="3">
-        <f>IF([3]Sheet1!C53&gt;1,1,[3]Sheet1!C53)</f>
         <v>1</v>
       </c>
       <c r="D43" s="3">
@@ -5747,14 +4668,13 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <f>IF([3]Sheet1!A54=0,A43,[3]Sheet1!A54)</f>
+        <f>IF([2]Sheet1!A54=0,A43,[2]Sheet1!A54)</f>
         <v>120</v>
       </c>
       <c r="B44" s="1">
         <v>0.03</v>
       </c>
       <c r="C44" s="3">
-        <f>IF([3]Sheet1!C54&gt;1,1,[3]Sheet1!C54)</f>
         <v>1</v>
       </c>
       <c r="D44" s="3">
@@ -5769,14 +4689,13 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <f>IF([3]Sheet1!A55=0,A44,[3]Sheet1!A55)</f>
+        <f>IF([2]Sheet1!A55=0,A44,[2]Sheet1!A55)</f>
         <v>120</v>
       </c>
       <c r="B45" s="1">
         <v>0.04</v>
       </c>
       <c r="C45" s="3">
-        <f>IF([3]Sheet1!C55&gt;1,1,[3]Sheet1!C55)</f>
         <v>1</v>
       </c>
       <c r="D45" s="3">
@@ -5791,14 +4710,13 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <f>IF([3]Sheet1!A56=0,A45,[3]Sheet1!A56)</f>
+        <f>IF([2]Sheet1!A56=0,A45,[2]Sheet1!A56)</f>
         <v>120</v>
       </c>
       <c r="B46" s="1">
         <v>0.05</v>
       </c>
       <c r="C46" s="3">
-        <f>IF([3]Sheet1!C56&gt;1,1,[3]Sheet1!C56)</f>
         <v>0.99541574680455402</v>
       </c>
       <c r="D46" s="3">
@@ -5813,14 +4731,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <f>IF([3]Sheet1!A57=0,A46,[3]Sheet1!A57)</f>
+        <f>IF([2]Sheet1!A57=0,A46,[2]Sheet1!A57)</f>
         <v>120</v>
       </c>
       <c r="B47" s="1">
         <v>0.06</v>
       </c>
       <c r="C47" s="3">
-        <f>IF([3]Sheet1!C57&gt;1,1,[3]Sheet1!C57)</f>
         <v>0.98439346160395902</v>
       </c>
       <c r="D47" s="3">
@@ -5835,14 +4752,13 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <f>IF([3]Sheet1!A58=0,A47,[3]Sheet1!A58)</f>
+        <f>IF([2]Sheet1!A58=0,A47,[2]Sheet1!A58)</f>
         <v>120</v>
       </c>
       <c r="B48" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C48" s="3">
-        <f>IF([3]Sheet1!C58&gt;1,1,[3]Sheet1!C58)</f>
         <v>0.97388577334897797</v>
       </c>
       <c r="D48" s="3">
@@ -5857,14 +4773,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <f>IF([3]Sheet1!A59=0,A48,[3]Sheet1!A59)</f>
+        <f>IF([2]Sheet1!A59=0,A48,[2]Sheet1!A59)</f>
         <v>120</v>
       </c>
       <c r="B49" s="1">
         <v>0.08</v>
       </c>
       <c r="C49" s="3">
-        <f>IF([3]Sheet1!C59&gt;1,1,[3]Sheet1!C59)</f>
         <v>0.96284394098508597</v>
       </c>
       <c r="D49" s="3">
@@ -5879,14 +4794,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <f>IF([3]Sheet1!A60=0,A49,[3]Sheet1!A60)</f>
+        <f>IF([2]Sheet1!A60=0,A49,[2]Sheet1!A60)</f>
         <v>120</v>
       </c>
       <c r="B50" s="1">
         <v>0.09</v>
       </c>
       <c r="C50" s="3">
-        <f>IF([3]Sheet1!C60&gt;1,1,[3]Sheet1!C60)</f>
         <v>0.95057175034853303</v>
       </c>
       <c r="D50" s="3">
@@ -5901,14 +4815,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <f>IF([3]Sheet1!A61=0,A50,[3]Sheet1!A61)</f>
+        <f>IF([2]Sheet1!A61=0,A50,[2]Sheet1!A61)</f>
         <v>120</v>
       </c>
       <c r="B51" s="1">
         <v>0.1</v>
       </c>
       <c r="C51" s="3">
-        <f>IF([3]Sheet1!C61&gt;1,1,[3]Sheet1!C61)</f>
         <v>0.93789368383961003</v>
       </c>
       <c r="D51" s="3">
@@ -5923,14 +4836,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <f>IF([3]Sheet1!A62=0,A51,[3]Sheet1!A62)</f>
+        <f>IF([2]Sheet1!A62=0,A51,[2]Sheet1!A62)</f>
         <v>130</v>
       </c>
       <c r="B52" s="1">
         <v>0.01</v>
       </c>
       <c r="C52" s="3">
-        <f>IF([3]Sheet1!C62&gt;1,1,[3]Sheet1!C62)</f>
         <v>1</v>
       </c>
       <c r="D52" s="3">
@@ -5945,14 +4857,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <f>IF([3]Sheet1!A63=0,A52,[3]Sheet1!A63)</f>
+        <f>IF([2]Sheet1!A63=0,A52,[2]Sheet1!A63)</f>
         <v>130</v>
       </c>
       <c r="B53" s="1">
         <v>0.02</v>
       </c>
       <c r="C53" s="3">
-        <f>IF([3]Sheet1!C63&gt;1,1,[3]Sheet1!C63)</f>
         <v>1</v>
       </c>
       <c r="D53" s="3">
@@ -5967,14 +4878,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <f>IF([3]Sheet1!A64=0,A53,[3]Sheet1!A64)</f>
+        <f>IF([2]Sheet1!A64=0,A53,[2]Sheet1!A64)</f>
         <v>130</v>
       </c>
       <c r="B54" s="1">
         <v>0.03</v>
       </c>
       <c r="C54" s="3">
-        <f>IF([3]Sheet1!C64&gt;1,1,[3]Sheet1!C64)</f>
         <v>1</v>
       </c>
       <c r="D54" s="3">
@@ -5989,14 +4899,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <f>IF([3]Sheet1!A65=0,A54,[3]Sheet1!A65)</f>
+        <f>IF([2]Sheet1!A65=0,A54,[2]Sheet1!A65)</f>
         <v>130</v>
       </c>
       <c r="B55" s="1">
         <v>0.04</v>
       </c>
       <c r="C55" s="3">
-        <f>IF([3]Sheet1!C65&gt;1,1,[3]Sheet1!C65)</f>
         <v>1</v>
       </c>
       <c r="D55" s="3">
@@ -6011,14 +4920,13 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <f>IF([3]Sheet1!A66=0,A55,[3]Sheet1!A66)</f>
+        <f>IF([2]Sheet1!A66=0,A55,[2]Sheet1!A66)</f>
         <v>130</v>
       </c>
       <c r="B56" s="1">
         <v>0.05</v>
       </c>
       <c r="C56" s="3">
-        <f>IF([3]Sheet1!C66&gt;1,1,[3]Sheet1!C66)</f>
         <v>1</v>
       </c>
       <c r="D56" s="3">
@@ -6033,14 +4941,13 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <f>IF([3]Sheet1!A67=0,A56,[3]Sheet1!A67)</f>
+        <f>IF([2]Sheet1!A67=0,A56,[2]Sheet1!A67)</f>
         <v>130</v>
       </c>
       <c r="B57" s="1">
         <v>0.06</v>
       </c>
       <c r="C57" s="3">
-        <f>IF([3]Sheet1!C67&gt;1,1,[3]Sheet1!C67)</f>
         <v>0.99868834216820901</v>
       </c>
       <c r="D57" s="3">
@@ -6055,14 +4962,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <f>IF([3]Sheet1!A68=0,A57,[3]Sheet1!A68)</f>
+        <f>IF([2]Sheet1!A68=0,A57,[2]Sheet1!A68)</f>
         <v>130</v>
       </c>
       <c r="B58" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C58" s="3">
-        <f>IF([3]Sheet1!C68&gt;1,1,[3]Sheet1!C68)</f>
         <v>0.99188675270736304</v>
       </c>
       <c r="D58" s="3">
@@ -6077,14 +4983,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <f>IF([3]Sheet1!A69=0,A58,[3]Sheet1!A69)</f>
+        <f>IF([2]Sheet1!A69=0,A58,[2]Sheet1!A69)</f>
         <v>130</v>
       </c>
       <c r="B59" s="1">
         <v>0.08</v>
       </c>
       <c r="C59" s="3">
-        <f>IF([3]Sheet1!C69&gt;1,1,[3]Sheet1!C69)</f>
         <v>0.98443819460198501</v>
       </c>
       <c r="D59" s="3">
@@ -6099,14 +5004,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <f>IF([3]Sheet1!A70=0,A59,[3]Sheet1!A70)</f>
+        <f>IF([2]Sheet1!A70=0,A59,[2]Sheet1!A70)</f>
         <v>130</v>
       </c>
       <c r="B60" s="1">
         <v>0.09</v>
       </c>
       <c r="C60" s="3">
-        <f>IF([3]Sheet1!C70&gt;1,1,[3]Sheet1!C70)</f>
         <v>0.97613259359215399</v>
       </c>
       <c r="D60" s="3">
@@ -6121,14 +5025,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <f>IF([3]Sheet1!A71=0,A60,[3]Sheet1!A71)</f>
+        <f>IF([2]Sheet1!A71=0,A60,[2]Sheet1!A71)</f>
         <v>130</v>
       </c>
       <c r="B61" s="1">
         <v>0.1</v>
       </c>
       <c r="C61" s="3">
-        <f>IF([3]Sheet1!C71&gt;1,1,[3]Sheet1!C71)</f>
         <v>0.96759375782616996</v>
       </c>
       <c r="D61" s="3">
@@ -6143,14 +5046,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <f>IF([3]Sheet1!A72=0,A61,[3]Sheet1!A72)</f>
+        <f>IF([2]Sheet1!A72=0,A61,[2]Sheet1!A72)</f>
         <v>140</v>
       </c>
       <c r="B62" s="1">
         <v>0.01</v>
       </c>
       <c r="C62" s="3">
-        <f>IF([3]Sheet1!C72&gt;1,1,[3]Sheet1!C72)</f>
         <v>1</v>
       </c>
       <c r="D62" s="3">
@@ -6165,14 +5067,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <f>IF([3]Sheet1!A73=0,A62,[3]Sheet1!A73)</f>
+        <f>IF([2]Sheet1!A73=0,A62,[2]Sheet1!A73)</f>
         <v>140</v>
       </c>
       <c r="B63" s="1">
         <v>0.02</v>
       </c>
       <c r="C63" s="3">
-        <f>IF([3]Sheet1!C73&gt;1,1,[3]Sheet1!C73)</f>
         <v>1</v>
       </c>
       <c r="D63" s="3">
@@ -6187,14 +5088,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <f>IF([3]Sheet1!A74=0,A63,[3]Sheet1!A74)</f>
+        <f>IF([2]Sheet1!A74=0,A63,[2]Sheet1!A74)</f>
         <v>140</v>
       </c>
       <c r="B64" s="1">
         <v>0.03</v>
       </c>
       <c r="C64" s="3">
-        <f>IF([3]Sheet1!C74&gt;1,1,[3]Sheet1!C74)</f>
         <v>1</v>
       </c>
       <c r="D64" s="3">
@@ -6209,14 +5109,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <f>IF([3]Sheet1!A75=0,A64,[3]Sheet1!A75)</f>
+        <f>IF([2]Sheet1!A75=0,A64,[2]Sheet1!A75)</f>
         <v>140</v>
       </c>
       <c r="B65" s="1">
         <v>0.04</v>
       </c>
       <c r="C65" s="3">
-        <f>IF([3]Sheet1!C75&gt;1,1,[3]Sheet1!C75)</f>
         <v>1</v>
       </c>
       <c r="D65" s="3">
@@ -6231,14 +5130,13 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <f>IF([3]Sheet1!A76=0,A65,[3]Sheet1!A76)</f>
+        <f>IF([2]Sheet1!A76=0,A65,[2]Sheet1!A76)</f>
         <v>140</v>
       </c>
       <c r="B66" s="1">
         <v>0.05</v>
       </c>
       <c r="C66" s="3">
-        <f>IF([3]Sheet1!C76&gt;1,1,[3]Sheet1!C76)</f>
         <v>1</v>
       </c>
       <c r="D66" s="3">
@@ -6253,14 +5151,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <f>IF([3]Sheet1!A77=0,A66,[3]Sheet1!A77)</f>
+        <f>IF([2]Sheet1!A77=0,A66,[2]Sheet1!A77)</f>
         <v>140</v>
       </c>
       <c r="B67" s="1">
         <v>0.06</v>
       </c>
       <c r="C67" s="3">
-        <f>IF([3]Sheet1!C77&gt;1,1,[3]Sheet1!C77)</f>
         <v>1</v>
       </c>
       <c r="D67" s="3">
@@ -6275,14 +5172,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <f>IF([3]Sheet1!A78=0,A67,[3]Sheet1!A78)</f>
+        <f>IF([2]Sheet1!A78=0,A67,[2]Sheet1!A78)</f>
         <v>140</v>
       </c>
       <c r="B68" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C68" s="3">
-        <f>IF([3]Sheet1!C78&gt;1,1,[3]Sheet1!C78)</f>
         <v>1</v>
       </c>
       <c r="D68" s="3">
@@ -6297,14 +5193,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <f>IF([3]Sheet1!A79=0,A68,[3]Sheet1!A79)</f>
+        <f>IF([2]Sheet1!A79=0,A68,[2]Sheet1!A79)</f>
         <v>140</v>
       </c>
       <c r="B69" s="1">
         <v>0.08</v>
       </c>
       <c r="C69" s="3">
-        <f>IF([3]Sheet1!C79&gt;1,1,[3]Sheet1!C79)</f>
         <v>0.99790750644728499</v>
       </c>
       <c r="D69" s="3">
@@ -6319,14 +5214,13 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <f>IF([3]Sheet1!A80=0,A69,[3]Sheet1!A80)</f>
+        <f>IF([2]Sheet1!A80=0,A69,[2]Sheet1!A80)</f>
         <v>140</v>
       </c>
       <c r="B70" s="1">
         <v>0.09</v>
       </c>
       <c r="C70" s="3">
-        <f>IF([3]Sheet1!C80&gt;1,1,[3]Sheet1!C80)</f>
         <v>0.99227929650956204</v>
       </c>
       <c r="D70" s="3">
@@ -6341,14 +5235,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <f>IF([3]Sheet1!A81=0,A70,[3]Sheet1!A81)</f>
+        <f>IF([2]Sheet1!A81=0,A70,[2]Sheet1!A81)</f>
         <v>140</v>
       </c>
       <c r="B71" s="1">
         <v>0.1</v>
       </c>
       <c r="C71" s="3">
-        <f>IF([3]Sheet1!C81&gt;1,1,[3]Sheet1!C81)</f>
         <v>0.986551176643642</v>
       </c>
       <c r="D71" s="3">
@@ -6363,14 +5256,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <f>IF([3]Sheet1!A82=0,A71,[3]Sheet1!A82)</f>
+        <f>IF([2]Sheet1!A82=0,A71,[2]Sheet1!A82)</f>
         <v>150</v>
       </c>
       <c r="B72" s="1">
         <v>0.01</v>
       </c>
       <c r="C72" s="3">
-        <f>IF([3]Sheet1!C82&gt;1,1,[3]Sheet1!C82)</f>
         <v>1</v>
       </c>
       <c r="D72" s="3">
@@ -6385,14 +5277,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <f>IF([3]Sheet1!A83=0,A72,[3]Sheet1!A83)</f>
+        <f>IF([2]Sheet1!A83=0,A72,[2]Sheet1!A83)</f>
         <v>150</v>
       </c>
       <c r="B73" s="1">
         <v>0.02</v>
       </c>
       <c r="C73" s="3">
-        <f>IF([3]Sheet1!C83&gt;1,1,[3]Sheet1!C83)</f>
         <v>1</v>
       </c>
       <c r="D73" s="3">
@@ -6407,14 +5298,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <f>IF([3]Sheet1!A84=0,A73,[3]Sheet1!A84)</f>
+        <f>IF([2]Sheet1!A84=0,A73,[2]Sheet1!A84)</f>
         <v>150</v>
       </c>
       <c r="B74" s="1">
         <v>0.03</v>
       </c>
       <c r="C74" s="3">
-        <f>IF([3]Sheet1!C84&gt;1,1,[3]Sheet1!C84)</f>
         <v>1</v>
       </c>
       <c r="D74" s="3">
@@ -6429,14 +5319,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <f>IF([3]Sheet1!A85=0,A74,[3]Sheet1!A85)</f>
+        <f>IF([2]Sheet1!A85=0,A74,[2]Sheet1!A85)</f>
         <v>150</v>
       </c>
       <c r="B75" s="1">
         <v>0.04</v>
       </c>
       <c r="C75" s="3">
-        <f>IF([3]Sheet1!C85&gt;1,1,[3]Sheet1!C85)</f>
         <v>1</v>
       </c>
       <c r="D75" s="3">
@@ -6451,14 +5340,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <f>IF([3]Sheet1!A86=0,A75,[3]Sheet1!A86)</f>
+        <f>IF([2]Sheet1!A86=0,A75,[2]Sheet1!A86)</f>
         <v>150</v>
       </c>
       <c r="B76" s="1">
         <v>0.05</v>
       </c>
       <c r="C76" s="3">
-        <f>IF([3]Sheet1!C86&gt;1,1,[3]Sheet1!C86)</f>
         <v>1</v>
       </c>
       <c r="D76" s="3">
@@ -6473,14 +5361,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <f>IF([3]Sheet1!A87=0,A76,[3]Sheet1!A87)</f>
+        <f>IF([2]Sheet1!A87=0,A76,[2]Sheet1!A87)</f>
         <v>150</v>
       </c>
       <c r="B77" s="1">
         <v>0.06</v>
       </c>
       <c r="C77" s="3">
-        <f>IF([3]Sheet1!C87&gt;1,1,[3]Sheet1!C87)</f>
         <v>1</v>
       </c>
       <c r="D77" s="3">
@@ -6495,14 +5382,13 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <f>IF([3]Sheet1!A88=0,A77,[3]Sheet1!A88)</f>
+        <f>IF([2]Sheet1!A88=0,A77,[2]Sheet1!A88)</f>
         <v>150</v>
       </c>
       <c r="B78" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C78" s="3">
-        <f>IF([3]Sheet1!C88&gt;1,1,[3]Sheet1!C88)</f>
         <v>1</v>
       </c>
       <c r="D78" s="3">
@@ -6517,14 +5403,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <f>IF([3]Sheet1!A89=0,A78,[3]Sheet1!A89)</f>
+        <f>IF([2]Sheet1!A89=0,A78,[2]Sheet1!A89)</f>
         <v>150</v>
       </c>
       <c r="B79" s="1">
         <v>0.08</v>
       </c>
       <c r="C79" s="3">
-        <f>IF([3]Sheet1!C89&gt;1,1,[3]Sheet1!C89)</f>
         <v>1</v>
       </c>
       <c r="D79" s="3">
@@ -6539,14 +5424,13 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <f>IF([3]Sheet1!A90=0,A79,[3]Sheet1!A90)</f>
+        <f>IF([2]Sheet1!A90=0,A79,[2]Sheet1!A90)</f>
         <v>150</v>
       </c>
       <c r="B80" s="1">
         <v>0.09</v>
       </c>
       <c r="C80" s="3">
-        <f>IF([3]Sheet1!C90&gt;1,1,[3]Sheet1!C90)</f>
         <v>1</v>
       </c>
       <c r="D80" s="3">
@@ -6561,14 +5445,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <f>IF([3]Sheet1!A91=0,A80,[3]Sheet1!A91)</f>
+        <f>IF([2]Sheet1!A91=0,A80,[2]Sheet1!A91)</f>
         <v>150</v>
       </c>
       <c r="B81" s="1">
         <v>0.1</v>
       </c>
       <c r="C81" s="3">
-        <f>IF([3]Sheet1!C91&gt;1,1,[3]Sheet1!C91)</f>
         <v>0.99808250281340605</v>
       </c>
       <c r="D81" s="3">
@@ -6583,14 +5466,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <f>IF([3]Sheet1!A92=0,A81,[3]Sheet1!A92)</f>
+        <f>IF([2]Sheet1!A92=0,A81,[2]Sheet1!A92)</f>
         <v>160</v>
       </c>
       <c r="B82" s="1">
         <v>0.01</v>
       </c>
       <c r="C82" s="3">
-        <f>IF([3]Sheet1!C92&gt;1,1,[3]Sheet1!C92)</f>
         <v>1</v>
       </c>
       <c r="D82" s="3">
@@ -6605,14 +5487,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <f>IF([3]Sheet1!A93=0,A82,[3]Sheet1!A93)</f>
+        <f>IF([2]Sheet1!A93=0,A82,[2]Sheet1!A93)</f>
         <v>160</v>
       </c>
       <c r="B83" s="1">
         <v>0.02</v>
       </c>
       <c r="C83" s="3">
-        <f>IF([3]Sheet1!C93&gt;1,1,[3]Sheet1!C93)</f>
         <v>1</v>
       </c>
       <c r="D83" s="3">
@@ -6627,14 +5508,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <f>IF([3]Sheet1!A94=0,A83,[3]Sheet1!A94)</f>
+        <f>IF([2]Sheet1!A94=0,A83,[2]Sheet1!A94)</f>
         <v>160</v>
       </c>
       <c r="B84" s="1">
         <v>0.03</v>
       </c>
       <c r="C84" s="3">
-        <f>IF([3]Sheet1!C94&gt;1,1,[3]Sheet1!C94)</f>
         <v>1</v>
       </c>
       <c r="D84" s="3">
@@ -6649,14 +5529,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <f>IF([3]Sheet1!A95=0,A84,[3]Sheet1!A95)</f>
+        <f>IF([2]Sheet1!A95=0,A84,[2]Sheet1!A95)</f>
         <v>160</v>
       </c>
       <c r="B85" s="1">
         <v>0.04</v>
       </c>
       <c r="C85" s="3">
-        <f>IF([3]Sheet1!C95&gt;1,1,[3]Sheet1!C95)</f>
         <v>1</v>
       </c>
       <c r="D85" s="3">
@@ -6671,14 +5550,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <f>IF([3]Sheet1!A96=0,A85,[3]Sheet1!A96)</f>
+        <f>IF([2]Sheet1!A96=0,A85,[2]Sheet1!A96)</f>
         <v>160</v>
       </c>
       <c r="B86" s="1">
         <v>0.05</v>
       </c>
       <c r="C86" s="3">
-        <f>IF([3]Sheet1!C96&gt;1,1,[3]Sheet1!C96)</f>
         <v>1</v>
       </c>
       <c r="D86" s="3">
@@ -6693,14 +5571,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <f>IF([3]Sheet1!A97=0,A86,[3]Sheet1!A97)</f>
+        <f>IF([2]Sheet1!A97=0,A86,[2]Sheet1!A97)</f>
         <v>160</v>
       </c>
       <c r="B87" s="1">
         <v>0.06</v>
       </c>
       <c r="C87" s="3">
-        <f>IF([3]Sheet1!C97&gt;1,1,[3]Sheet1!C97)</f>
         <v>1</v>
       </c>
       <c r="D87" s="3">
@@ -6715,14 +5592,13 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <f>IF([3]Sheet1!A98=0,A87,[3]Sheet1!A98)</f>
+        <f>IF([2]Sheet1!A98=0,A87,[2]Sheet1!A98)</f>
         <v>160</v>
       </c>
       <c r="B88" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C88" s="3">
-        <f>IF([3]Sheet1!C98&gt;1,1,[3]Sheet1!C98)</f>
         <v>1</v>
       </c>
       <c r="D88" s="3">
@@ -6737,14 +5613,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <f>IF([3]Sheet1!A99=0,A88,[3]Sheet1!A99)</f>
+        <f>IF([2]Sheet1!A99=0,A88,[2]Sheet1!A99)</f>
         <v>160</v>
       </c>
       <c r="B89" s="1">
         <v>0.08</v>
       </c>
       <c r="C89" s="3">
-        <f>IF([3]Sheet1!C99&gt;1,1,[3]Sheet1!C99)</f>
         <v>1</v>
       </c>
       <c r="D89" s="3">
@@ -6759,14 +5634,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <f>IF([3]Sheet1!A100=0,A89,[3]Sheet1!A100)</f>
+        <f>IF([2]Sheet1!A100=0,A89,[2]Sheet1!A100)</f>
         <v>160</v>
       </c>
       <c r="B90" s="1">
         <v>0.09</v>
       </c>
       <c r="C90" s="3">
-        <f>IF([3]Sheet1!C100&gt;1,1,[3]Sheet1!C100)</f>
         <v>1</v>
       </c>
       <c r="D90" s="3">
@@ -6781,14 +5655,13 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <f>IF([3]Sheet1!A101=0,A90,[3]Sheet1!A101)</f>
+        <f>IF([2]Sheet1!A101=0,A90,[2]Sheet1!A101)</f>
         <v>160</v>
       </c>
       <c r="B91" s="1">
         <v>0.1</v>
       </c>
       <c r="C91" s="3">
-        <f>IF([3]Sheet1!C101&gt;1,1,[3]Sheet1!C101)</f>
         <v>1</v>
       </c>
       <c r="D91" s="3">
@@ -6803,14 +5676,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <f>IF([3]Sheet1!A102=0,A91,[3]Sheet1!A102)</f>
+        <f>IF([2]Sheet1!A102=0,A91,[2]Sheet1!A102)</f>
         <v>170</v>
       </c>
       <c r="B92" s="1">
         <v>0.01</v>
       </c>
       <c r="C92" s="3">
-        <f>IF([3]Sheet1!C102&gt;1,1,[3]Sheet1!C102)</f>
         <v>1</v>
       </c>
       <c r="D92" s="3">
@@ -6825,14 +5697,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <f>IF([3]Sheet1!A103=0,A92,[3]Sheet1!A103)</f>
+        <f>IF([2]Sheet1!A103=0,A92,[2]Sheet1!A103)</f>
         <v>170</v>
       </c>
       <c r="B93" s="1">
         <v>0.02</v>
       </c>
       <c r="C93" s="3">
-        <f>IF([3]Sheet1!C103&gt;1,1,[3]Sheet1!C103)</f>
         <v>1</v>
       </c>
       <c r="D93" s="3">
@@ -6847,14 +5718,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <f>IF([3]Sheet1!A104=0,A93,[3]Sheet1!A104)</f>
+        <f>IF([2]Sheet1!A104=0,A93,[2]Sheet1!A104)</f>
         <v>170</v>
       </c>
       <c r="B94" s="1">
         <v>0.03</v>
       </c>
       <c r="C94" s="3">
-        <f>IF([3]Sheet1!C104&gt;1,1,[3]Sheet1!C104)</f>
         <v>1</v>
       </c>
       <c r="D94" s="3">
@@ -6869,14 +5739,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <f>IF([3]Sheet1!A105=0,A94,[3]Sheet1!A105)</f>
+        <f>IF([2]Sheet1!A105=0,A94,[2]Sheet1!A105)</f>
         <v>170</v>
       </c>
       <c r="B95" s="1">
         <v>0.04</v>
       </c>
       <c r="C95" s="3">
-        <f>IF([3]Sheet1!C105&gt;1,1,[3]Sheet1!C105)</f>
         <v>1</v>
       </c>
       <c r="D95" s="3">
@@ -6891,14 +5760,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <f>IF([3]Sheet1!A106=0,A95,[3]Sheet1!A106)</f>
+        <f>IF([2]Sheet1!A106=0,A95,[2]Sheet1!A106)</f>
         <v>170</v>
       </c>
       <c r="B96" s="1">
         <v>0.05</v>
       </c>
       <c r="C96" s="3">
-        <f>IF([3]Sheet1!C106&gt;1,1,[3]Sheet1!C106)</f>
         <v>1</v>
       </c>
       <c r="D96" s="3">
@@ -6913,14 +5781,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <f>IF([3]Sheet1!A107=0,A96,[3]Sheet1!A107)</f>
+        <f>IF([2]Sheet1!A107=0,A96,[2]Sheet1!A107)</f>
         <v>170</v>
       </c>
       <c r="B97" s="1">
         <v>0.06</v>
       </c>
       <c r="C97" s="3">
-        <f>IF([3]Sheet1!C107&gt;1,1,[3]Sheet1!C107)</f>
         <v>1</v>
       </c>
       <c r="D97" s="3">
@@ -6935,14 +5802,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <f>IF([3]Sheet1!A108=0,A97,[3]Sheet1!A108)</f>
+        <f>IF([2]Sheet1!A108=0,A97,[2]Sheet1!A108)</f>
         <v>170</v>
       </c>
       <c r="B98" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C98" s="3">
-        <f>IF([3]Sheet1!C108&gt;1,1,[3]Sheet1!C108)</f>
         <v>1</v>
       </c>
       <c r="D98" s="3">
@@ -6957,14 +5823,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <f>IF([3]Sheet1!A109=0,A98,[3]Sheet1!A109)</f>
+        <f>IF([2]Sheet1!A109=0,A98,[2]Sheet1!A109)</f>
         <v>170</v>
       </c>
       <c r="B99" s="1">
         <v>0.08</v>
       </c>
       <c r="C99" s="3">
-        <f>IF([3]Sheet1!C109&gt;1,1,[3]Sheet1!C109)</f>
         <v>1</v>
       </c>
       <c r="D99" s="3">
@@ -6979,14 +5844,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <f>IF([3]Sheet1!A110=0,A99,[3]Sheet1!A110)</f>
+        <f>IF([2]Sheet1!A110=0,A99,[2]Sheet1!A110)</f>
         <v>170</v>
       </c>
       <c r="B100" s="1">
         <v>0.09</v>
       </c>
       <c r="C100" s="3">
-        <f>IF([3]Sheet1!C110&gt;1,1,[3]Sheet1!C110)</f>
         <v>1</v>
       </c>
       <c r="D100" s="3">
@@ -7001,14 +5865,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <f>IF([3]Sheet1!A111=0,A100,[3]Sheet1!A111)</f>
+        <f>IF([2]Sheet1!A111=0,A100,[2]Sheet1!A111)</f>
         <v>170</v>
       </c>
       <c r="B101" s="1">
         <v>0.1</v>
       </c>
       <c r="C101" s="3">
-        <f>IF([3]Sheet1!C111&gt;1,1,[3]Sheet1!C111)</f>
         <v>1</v>
       </c>
       <c r="D101" s="3">
@@ -7030,8 +5893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658A4940-F963-4512-84FD-0E8EA3B0A867}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7064,7 +5927,6 @@
         <v>0.01</v>
       </c>
       <c r="C2" s="3">
-        <f>IF([2]Sheet1!C2&lt;1,[2]Sheet1!C2,1)</f>
         <v>0.97074929502961105</v>
       </c>
       <c r="D2" s="3">
@@ -7085,7 +5947,6 @@
         <v>0.02</v>
       </c>
       <c r="C3" s="3">
-        <f>IF([2]Sheet1!C3&lt;1,[2]Sheet1!C3,1)</f>
         <v>0.911866982435804</v>
       </c>
       <c r="D3" s="3">
@@ -7106,7 +5967,6 @@
         <v>0.03</v>
       </c>
       <c r="C4" s="3">
-        <f>IF([2]Sheet1!C4&lt;1,[2]Sheet1!C4,1)</f>
         <v>0.84326514472987202</v>
       </c>
       <c r="D4" s="3">
@@ -7127,7 +5987,6 @@
         <v>0.04</v>
       </c>
       <c r="C5" s="3">
-        <f>IF([2]Sheet1!C5&lt;1,[2]Sheet1!C5,1)</f>
         <v>0.76747331932059704</v>
       </c>
       <c r="D5" s="3">
@@ -7148,7 +6007,6 @@
         <v>0.05</v>
       </c>
       <c r="C6" s="3">
-        <f>IF([2]Sheet1!C6&lt;1,[2]Sheet1!C6,1)</f>
         <v>0.68685711461884202</v>
       </c>
       <c r="D6" s="3">
@@ -7169,7 +6027,6 @@
         <v>0.06</v>
       </c>
       <c r="C7" s="3">
-        <f>IF([2]Sheet1!C7&lt;1,[2]Sheet1!C7,1)</f>
         <v>0.63320467803735103</v>
       </c>
       <c r="D7" s="3">
@@ -7190,7 +6047,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C8" s="3">
-        <f>IF([2]Sheet1!C8&lt;1,[2]Sheet1!C8,1)</f>
         <v>0.61502849724160602</v>
       </c>
       <c r="D8" s="3">
@@ -7211,7 +6067,6 @@
         <v>0.08</v>
       </c>
       <c r="C9" s="3">
-        <f>IF([2]Sheet1!C9&lt;1,[2]Sheet1!C9,1)</f>
         <v>0.61281720237016701</v>
       </c>
       <c r="D9" s="3">
@@ -7232,7 +6087,6 @@
         <v>0.09</v>
       </c>
       <c r="C10" s="3">
-        <f>IF([2]Sheet1!C10&lt;1,[2]Sheet1!C10,1)</f>
         <v>0.61295959549253998</v>
       </c>
       <c r="D10" s="3">
@@ -7253,7 +6107,6 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="3">
-        <f>IF([2]Sheet1!C11&lt;1,[2]Sheet1!C11,1)</f>
         <v>0.613124668272226</v>
       </c>
       <c r="D11" s="3">
@@ -7274,7 +6127,6 @@
         <v>0.01</v>
       </c>
       <c r="C12" s="3">
-        <f>IF([2]Sheet1!C12&lt;1,[2]Sheet1!C12,1)</f>
         <v>0.98817478978590101</v>
       </c>
       <c r="D12" s="3">
@@ -7295,7 +6147,6 @@
         <v>0.02</v>
       </c>
       <c r="C13" s="3">
-        <f>IF([2]Sheet1!C13&lt;1,[2]Sheet1!C13,1)</f>
         <v>0.95276413643823299</v>
       </c>
       <c r="D13" s="3">
@@ -7316,7 +6167,6 @@
         <v>0.03</v>
       </c>
       <c r="C14" s="3">
-        <f>IF([2]Sheet1!C14&lt;1,[2]Sheet1!C14,1)</f>
         <v>0.91015423950375096</v>
       </c>
       <c r="D14" s="3">
@@ -7337,7 +6187,6 @@
         <v>0.04</v>
       </c>
       <c r="C15" s="3">
-        <f>IF([2]Sheet1!C15&lt;1,[2]Sheet1!C15,1)</f>
         <v>0.86178346068613099</v>
       </c>
       <c r="D15" s="3">
@@ -7358,7 +6207,6 @@
         <v>0.05</v>
       </c>
       <c r="C16" s="3">
-        <f>IF([2]Sheet1!C16&lt;1,[2]Sheet1!C16,1)</f>
         <v>0.80876960315574298</v>
       </c>
       <c r="D16" s="3">
@@ -7379,7 +6227,6 @@
         <v>0.06</v>
       </c>
       <c r="C17" s="3">
-        <f>IF([2]Sheet1!C17&lt;1,[2]Sheet1!C17,1)</f>
         <v>0.75177198962005398</v>
       </c>
       <c r="D17" s="3">
@@ -7400,7 +6247,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C18" s="3">
-        <f>IF([2]Sheet1!C18&lt;1,[2]Sheet1!C18,1)</f>
         <v>0.69046564111028097</v>
       </c>
       <c r="D18" s="3">
@@ -7421,7 +6267,6 @@
         <v>0.08</v>
       </c>
       <c r="C19" s="3">
-        <f>IF([2]Sheet1!C19&lt;1,[2]Sheet1!C19,1)</f>
         <v>0.64700290186711495</v>
       </c>
       <c r="D19" s="3">
@@ -7442,7 +6287,6 @@
         <v>0.09</v>
       </c>
       <c r="C20" s="3">
-        <f>IF([2]Sheet1!C20&lt;1,[2]Sheet1!C20,1)</f>
         <v>0.626193616575069</v>
       </c>
       <c r="D20" s="3">
@@ -7463,7 +6307,6 @@
         <v>0.1</v>
       </c>
       <c r="C21" s="3">
-        <f>IF([2]Sheet1!C21&lt;1,[2]Sheet1!C21,1)</f>
         <v>0.61619558383452899</v>
       </c>
       <c r="D21" s="3">
@@ -7484,7 +6327,6 @@
         <v>0.01</v>
       </c>
       <c r="C22" s="3">
-        <f>IF([2]Sheet1!C22&lt;1,[2]Sheet1!C22,1)</f>
         <v>0.99811241953973895</v>
       </c>
       <c r="D22" s="3">
@@ -7505,7 +6347,6 @@
         <v>0.02</v>
       </c>
       <c r="C23" s="3">
-        <f>IF([2]Sheet1!C23&lt;1,[2]Sheet1!C23,1)</f>
         <v>0.97728051314741404</v>
       </c>
       <c r="D23" s="3">
@@ -7526,7 +6367,6 @@
         <v>0.03</v>
       </c>
       <c r="C24" s="3">
-        <f>IF([2]Sheet1!C24&lt;1,[2]Sheet1!C24,1)</f>
         <v>0.95122896315634098</v>
       </c>
       <c r="D24" s="3">
@@ -7547,7 +6387,6 @@
         <v>0.04</v>
       </c>
       <c r="C25" s="3">
-        <f>IF([2]Sheet1!C25&lt;1,[2]Sheet1!C25,1)</f>
         <v>0.92045786831078502</v>
       </c>
       <c r="D25" s="3">
@@ -7568,7 +6407,6 @@
         <v>0.05</v>
       </c>
       <c r="C26" s="3">
-        <f>IF([2]Sheet1!C26&lt;1,[2]Sheet1!C26,1)</f>
         <v>0.88607491803232896</v>
       </c>
       <c r="D26" s="3">
@@ -7589,7 +6427,6 @@
         <v>0.06</v>
       </c>
       <c r="C27" s="3">
-        <f>IF([2]Sheet1!C27&lt;1,[2]Sheet1!C27,1)</f>
         <v>0.84830334975334698</v>
       </c>
       <c r="D27" s="3">
@@ -7610,7 +6447,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C28" s="3">
-        <f>IF([2]Sheet1!C28&lt;1,[2]Sheet1!C28,1)</f>
         <v>0.80753637475775997</v>
       </c>
       <c r="D28" s="3">
@@ -7631,7 +6467,6 @@
         <v>0.08</v>
       </c>
       <c r="C29" s="3">
-        <f>IF([2]Sheet1!C29&lt;1,[2]Sheet1!C29,1)</f>
         <v>0.765587841272658</v>
       </c>
       <c r="D29" s="3">
@@ -7652,7 +6487,6 @@
         <v>0.09</v>
       </c>
       <c r="C30" s="3">
-        <f>IF([2]Sheet1!C30&lt;1,[2]Sheet1!C30,1)</f>
         <v>0.72058006380645401</v>
       </c>
       <c r="D30" s="3">
@@ -7673,7 +6507,6 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="3">
-        <f>IF([2]Sheet1!C31&lt;1,[2]Sheet1!C31,1)</f>
         <v>0.67968867697538704</v>
       </c>
       <c r="D31" s="3">
@@ -7694,7 +6527,6 @@
         <v>0.01</v>
       </c>
       <c r="C32" s="3">
-        <f>IF([2]Sheet1!C32&lt;1,[2]Sheet1!C32,1)</f>
         <v>1</v>
       </c>
       <c r="D32" s="3">
@@ -7715,7 +6547,6 @@
         <v>0.02</v>
       </c>
       <c r="C33" s="3">
-        <f>IF([2]Sheet1!C33&lt;1,[2]Sheet1!C33,1)</f>
         <v>0.99207711488170502</v>
       </c>
       <c r="D33" s="3">
@@ -7736,7 +6567,6 @@
         <v>0.03</v>
       </c>
       <c r="C34" s="3">
-        <f>IF([2]Sheet1!C34&lt;1,[2]Sheet1!C34,1)</f>
         <v>0.97609210783033795</v>
       </c>
       <c r="D34" s="3">
@@ -7757,7 +6587,6 @@
         <v>0.04</v>
       </c>
       <c r="C35" s="3">
-        <f>IF([2]Sheet1!C35&lt;1,[2]Sheet1!C35,1)</f>
         <v>0.95697254417733901</v>
       </c>
       <c r="D35" s="3">
@@ -7778,7 +6607,6 @@
         <v>0.05</v>
       </c>
       <c r="C36" s="3">
-        <f>IF([2]Sheet1!C36&lt;1,[2]Sheet1!C36,1)</f>
         <v>0.93491180774356897</v>
       </c>
       <c r="D36" s="3">
@@ -7799,7 +6627,6 @@
         <v>0.06</v>
       </c>
       <c r="C37" s="3">
-        <f>IF([2]Sheet1!C37&lt;1,[2]Sheet1!C37,1)</f>
         <v>0.91016398094018203</v>
       </c>
       <c r="D37" s="3">
@@ -7820,7 +6647,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C38" s="3">
-        <f>IF([2]Sheet1!C38&lt;1,[2]Sheet1!C38,1)</f>
         <v>0.88314411754931099</v>
       </c>
       <c r="D38" s="3">
@@ -7841,7 +6667,6 @@
         <v>0.08</v>
       </c>
       <c r="C39" s="3">
-        <f>IF([2]Sheet1!C39&lt;1,[2]Sheet1!C39,1)</f>
         <v>0.85552532700806405</v>
       </c>
       <c r="D39" s="3">
@@ -7862,7 +6687,6 @@
         <v>0.09</v>
       </c>
       <c r="C40" s="3">
-        <f>IF([2]Sheet1!C40&lt;1,[2]Sheet1!C40,1)</f>
         <v>0.82614911873286501</v>
       </c>
       <c r="D40" s="3">
@@ -7883,7 +6707,6 @@
         <v>0.1</v>
       </c>
       <c r="C41" s="3">
-        <f>IF([2]Sheet1!C41&lt;1,[2]Sheet1!C41,1)</f>
         <v>0.79551858193846703</v>
       </c>
       <c r="D41" s="3">
@@ -7904,7 +6727,6 @@
         <v>0.01</v>
       </c>
       <c r="C42" s="3">
-        <f>IF([2]Sheet1!C42&lt;1,[2]Sheet1!C42,1)</f>
         <v>1</v>
       </c>
       <c r="D42" s="3">
@@ -7925,7 +6747,6 @@
         <v>0.02</v>
       </c>
       <c r="C43" s="3">
-        <f>IF([2]Sheet1!C43&lt;1,[2]Sheet1!C43,1)</f>
         <v>1</v>
       </c>
       <c r="D43" s="3">
@@ -7946,7 +6767,6 @@
         <v>0.03</v>
       </c>
       <c r="C44" s="3">
-        <f>IF([2]Sheet1!C44&lt;1,[2]Sheet1!C44,1)</f>
         <v>0.99139840866329398</v>
       </c>
       <c r="D44" s="3">
@@ -7967,7 +6787,6 @@
         <v>0.04</v>
       </c>
       <c r="C45" s="3">
-        <f>IF([2]Sheet1!C45&lt;1,[2]Sheet1!C45,1)</f>
         <v>0.97954266702548098</v>
       </c>
       <c r="D45" s="3">
@@ -7988,7 +6807,6 @@
         <v>0.05</v>
       </c>
       <c r="C46" s="3">
-        <f>IF([2]Sheet1!C46&lt;1,[2]Sheet1!C46,1)</f>
         <v>0.96560399811660302</v>
       </c>
       <c r="D46" s="3">
@@ -8009,7 +6827,6 @@
         <v>0.06</v>
       </c>
       <c r="C47" s="3">
-        <f>IF([2]Sheet1!C47&lt;1,[2]Sheet1!C47,1)</f>
         <v>0.94964039079602103</v>
       </c>
       <c r="D47" s="3">
@@ -8030,7 +6847,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C48" s="3">
-        <f>IF([2]Sheet1!C48&lt;1,[2]Sheet1!C48,1)</f>
         <v>0.93161567579006299</v>
       </c>
       <c r="D48" s="3">
@@ -8051,7 +6867,6 @@
         <v>0.08</v>
       </c>
       <c r="C49" s="3">
-        <f>IF([2]Sheet1!C49&lt;1,[2]Sheet1!C49,1)</f>
         <v>0.91333086432128197</v>
       </c>
       <c r="D49" s="3">
@@ -8072,7 +6887,6 @@
         <v>0.09</v>
       </c>
       <c r="C50" s="3">
-        <f>IF([2]Sheet1!C50&lt;1,[2]Sheet1!C50,1)</f>
         <v>0.89378125164407995</v>
       </c>
       <c r="D50" s="3">
@@ -8093,7 +6907,6 @@
         <v>0.1</v>
       </c>
       <c r="C51" s="3">
-        <f>IF([2]Sheet1!C51&lt;1,[2]Sheet1!C51,1)</f>
         <v>0.87331469211553303</v>
       </c>
       <c r="D51" s="3">
@@ -8114,7 +6927,6 @@
         <v>0.01</v>
       </c>
       <c r="C52" s="3">
-        <f>IF([2]Sheet1!C52&lt;1,[2]Sheet1!C52,1)</f>
         <v>1</v>
       </c>
       <c r="D52" s="3">
@@ -8135,7 +6947,6 @@
         <v>0.02</v>
       </c>
       <c r="C53" s="3">
-        <f>IF([2]Sheet1!C53&lt;1,[2]Sheet1!C53,1)</f>
         <v>1</v>
       </c>
       <c r="D53" s="3">
@@ -8156,7 +6967,6 @@
         <v>0.03</v>
       </c>
       <c r="C54" s="3">
-        <f>IF([2]Sheet1!C54&lt;1,[2]Sheet1!C54,1)</f>
         <v>1</v>
       </c>
       <c r="D54" s="3">
@@ -8177,7 +6987,6 @@
         <v>0.04</v>
       </c>
       <c r="C55" s="3">
-        <f>IF([2]Sheet1!C55&lt;1,[2]Sheet1!C55,1)</f>
         <v>0.99365239721495302</v>
       </c>
       <c r="D55" s="3">
@@ -8198,7 +7007,6 @@
         <v>0.05</v>
       </c>
       <c r="C56" s="3">
-        <f>IF([2]Sheet1!C56&lt;1,[2]Sheet1!C56,1)</f>
         <v>0.98499716987077601</v>
       </c>
       <c r="D56" s="3">
@@ -8219,7 +7027,6 @@
         <v>0.06</v>
       </c>
       <c r="C57" s="3">
-        <f>IF([2]Sheet1!C57&lt;1,[2]Sheet1!C57,1)</f>
         <v>0.97493005238739805</v>
       </c>
       <c r="D57" s="3">
@@ -8240,7 +7047,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C58" s="3">
-        <f>IF([2]Sheet1!C58&lt;1,[2]Sheet1!C58,1)</f>
         <v>0.96327483129618596</v>
       </c>
       <c r="D58" s="3">
@@ -8261,7 +7067,6 @@
         <v>0.08</v>
       </c>
       <c r="C59" s="3">
-        <f>IF([2]Sheet1!C59&lt;1,[2]Sheet1!C59,1)</f>
         <v>0.95119239393226496</v>
       </c>
       <c r="D59" s="3">
@@ -8282,7 +7087,6 @@
         <v>0.09</v>
       </c>
       <c r="C60" s="3">
-        <f>IF([2]Sheet1!C60&lt;1,[2]Sheet1!C60,1)</f>
         <v>0.93829671461403996</v>
       </c>
       <c r="D60" s="3">
@@ -8303,7 +7107,6 @@
         <v>0.1</v>
       </c>
       <c r="C61" s="3">
-        <f>IF([2]Sheet1!C61&lt;1,[2]Sheet1!C61,1)</f>
         <v>0.92480345077545101</v>
       </c>
       <c r="D61" s="3">
@@ -8324,7 +7127,6 @@
         <v>0.01</v>
       </c>
       <c r="C62" s="3">
-        <f>IF([2]Sheet1!C62&lt;1,[2]Sheet1!C62,1)</f>
         <v>1</v>
       </c>
       <c r="D62" s="3">
@@ -8345,7 +7147,6 @@
         <v>0.02</v>
       </c>
       <c r="C63" s="3">
-        <f>IF([2]Sheet1!C63&lt;1,[2]Sheet1!C63,1)</f>
         <v>1</v>
       </c>
       <c r="D63" s="3">
@@ -8366,7 +7167,6 @@
         <v>0.03</v>
       </c>
       <c r="C64" s="3">
-        <f>IF([2]Sheet1!C64&lt;1,[2]Sheet1!C64,1)</f>
         <v>1</v>
       </c>
       <c r="D64" s="3">
@@ -8387,7 +7187,6 @@
         <v>0.04</v>
       </c>
       <c r="C65" s="3">
-        <f>IF([2]Sheet1!C65&lt;1,[2]Sheet1!C65,1)</f>
         <v>1</v>
       </c>
       <c r="D65" s="3">
@@ -8408,7 +7207,6 @@
         <v>0.05</v>
       </c>
       <c r="C66" s="3">
-        <f>IF([2]Sheet1!C66&lt;1,[2]Sheet1!C66,1)</f>
         <v>0.99688394990642704</v>
       </c>
       <c r="D66" s="3">
@@ -8429,7 +7227,6 @@
         <v>0.06</v>
       </c>
       <c r="C67" s="3">
-        <f>IF([2]Sheet1!C67&lt;1,[2]Sheet1!C67,1)</f>
         <v>0.99046351054871395</v>
       </c>
       <c r="D67" s="3">
@@ -8450,7 +7247,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C68" s="3">
-        <f>IF([2]Sheet1!C68&lt;1,[2]Sheet1!C68,1)</f>
         <v>0.98292973980805098</v>
       </c>
       <c r="D68" s="3">
@@ -8471,7 +7267,6 @@
         <v>0.08</v>
       </c>
       <c r="C69" s="3">
-        <f>IF([2]Sheet1!C69&lt;1,[2]Sheet1!C69,1)</f>
         <v>0.97516293790333097</v>
       </c>
       <c r="D69" s="3">
@@ -8492,7 +7287,6 @@
         <v>0.09</v>
       </c>
       <c r="C70" s="3">
-        <f>IF([2]Sheet1!C70&lt;1,[2]Sheet1!C70,1)</f>
         <v>0.96676799663823498</v>
       </c>
       <c r="D70" s="3">
@@ -8513,7 +7307,6 @@
         <v>0.1</v>
       </c>
       <c r="C71" s="3">
-        <f>IF([2]Sheet1!C71&lt;1,[2]Sheet1!C71,1)</f>
         <v>0.95798353963817495</v>
       </c>
       <c r="D71" s="3">
@@ -8534,7 +7327,6 @@
         <v>0.01</v>
       </c>
       <c r="C72" s="3">
-        <f>IF([2]Sheet1!C72&lt;1,[2]Sheet1!C72,1)</f>
         <v>1</v>
       </c>
       <c r="D72" s="3">
@@ -8555,7 +7347,6 @@
         <v>0.02</v>
       </c>
       <c r="C73" s="3">
-        <f>IF([2]Sheet1!C73&lt;1,[2]Sheet1!C73,1)</f>
         <v>1</v>
       </c>
       <c r="D73" s="3">
@@ -8576,7 +7367,6 @@
         <v>0.03</v>
       </c>
       <c r="C74" s="3">
-        <f>IF([2]Sheet1!C74&lt;1,[2]Sheet1!C74,1)</f>
         <v>1</v>
       </c>
       <c r="D74" s="3">
@@ -8597,7 +7387,6 @@
         <v>0.04</v>
       </c>
       <c r="C75" s="3">
-        <f>IF([2]Sheet1!C75&lt;1,[2]Sheet1!C75,1)</f>
         <v>1</v>
       </c>
       <c r="D75" s="3">
@@ -8618,7 +7407,6 @@
         <v>0.05</v>
       </c>
       <c r="C76" s="3">
-        <f>IF([2]Sheet1!C76&lt;1,[2]Sheet1!C76,1)</f>
         <v>1</v>
       </c>
       <c r="D76" s="3">
@@ -8639,7 +7427,6 @@
         <v>0.06</v>
       </c>
       <c r="C77" s="3">
-        <f>IF([2]Sheet1!C77&lt;1,[2]Sheet1!C77,1)</f>
         <v>0.99953703230773805</v>
       </c>
       <c r="D77" s="3">
@@ -8660,7 +7447,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C78" s="3">
-        <f>IF([2]Sheet1!C78&lt;1,[2]Sheet1!C78,1)</f>
         <v>0.99462737950386304</v>
       </c>
       <c r="D78" s="3">
@@ -8681,7 +7467,6 @@
         <v>0.08</v>
       </c>
       <c r="C79" s="3">
-        <f>IF([2]Sheet1!C79&lt;1,[2]Sheet1!C79,1)</f>
         <v>0.98962604925001396</v>
       </c>
       <c r="D79" s="3">
@@ -8702,7 +7487,6 @@
         <v>0.09</v>
       </c>
       <c r="C80" s="3">
-        <f>IF([2]Sheet1!C80&lt;1,[2]Sheet1!C80,1)</f>
         <v>0.98412041839171405</v>
       </c>
       <c r="D80" s="3">
@@ -8723,7 +7507,6 @@
         <v>0.1</v>
       </c>
       <c r="C81" s="3">
-        <f>IF([2]Sheet1!C81&lt;1,[2]Sheet1!C81,1)</f>
         <v>0.97842938653948996</v>
       </c>
       <c r="D81" s="3">
@@ -8744,7 +7527,6 @@
         <v>0.01</v>
       </c>
       <c r="C82" s="3">
-        <f>IF([2]Sheet1!C82&lt;1,[2]Sheet1!C82,1)</f>
         <v>1</v>
       </c>
       <c r="D82" s="3">
@@ -8765,7 +7547,6 @@
         <v>0.02</v>
       </c>
       <c r="C83" s="3">
-        <f>IF([2]Sheet1!C83&lt;1,[2]Sheet1!C83,1)</f>
         <v>1</v>
       </c>
       <c r="D83" s="3">
@@ -8786,7 +7567,6 @@
         <v>0.03</v>
       </c>
       <c r="C84" s="3">
-        <f>IF([2]Sheet1!C84&lt;1,[2]Sheet1!C84,1)</f>
         <v>1</v>
       </c>
       <c r="D84" s="3">
@@ -8807,7 +7587,6 @@
         <v>0.04</v>
       </c>
       <c r="C85" s="3">
-        <f>IF([2]Sheet1!C85&lt;1,[2]Sheet1!C85,1)</f>
         <v>1</v>
       </c>
       <c r="D85" s="3">
@@ -8828,7 +7607,6 @@
         <v>0.05</v>
       </c>
       <c r="C86" s="3">
-        <f>IF([2]Sheet1!C86&lt;1,[2]Sheet1!C86,1)</f>
         <v>1</v>
       </c>
       <c r="D86" s="3">
@@ -8849,7 +7627,6 @@
         <v>0.06</v>
       </c>
       <c r="C87" s="3">
-        <f>IF([2]Sheet1!C87&lt;1,[2]Sheet1!C87,1)</f>
         <v>1</v>
       </c>
       <c r="D87" s="3">
@@ -8870,7 +7647,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C88" s="3">
-        <f>IF([2]Sheet1!C88&lt;1,[2]Sheet1!C88,1)</f>
         <v>1</v>
       </c>
       <c r="D88" s="3">
@@ -8891,7 +7667,6 @@
         <v>0.08</v>
       </c>
       <c r="C89" s="3">
-        <f>IF([2]Sheet1!C89&lt;1,[2]Sheet1!C89,1)</f>
         <v>0.99815384255045003</v>
       </c>
       <c r="D89" s="3">
@@ -8912,7 +7687,6 @@
         <v>0.09</v>
       </c>
       <c r="C90" s="3">
-        <f>IF([2]Sheet1!C90&lt;1,[2]Sheet1!C90,1)</f>
         <v>0.99448344764401997</v>
       </c>
       <c r="D90" s="3">
@@ -8933,7 +7707,6 @@
         <v>0.1</v>
       </c>
       <c r="C91" s="3">
-        <f>IF([2]Sheet1!C91&lt;1,[2]Sheet1!C91,1)</f>
         <v>0.99071804875496505</v>
       </c>
       <c r="D91" s="3">
@@ -8954,7 +7727,6 @@
         <v>0.01</v>
       </c>
       <c r="C92" s="3">
-        <f>IF([2]Sheet1!C92&lt;1,[2]Sheet1!C92,1)</f>
         <v>1</v>
       </c>
       <c r="D92" s="3">
@@ -8975,7 +7747,6 @@
         <v>0.02</v>
       </c>
       <c r="C93" s="3">
-        <f>IF([2]Sheet1!C93&lt;1,[2]Sheet1!C93,1)</f>
         <v>1</v>
       </c>
       <c r="D93" s="3">
@@ -8996,7 +7767,6 @@
         <v>0.03</v>
       </c>
       <c r="C94" s="3">
-        <f>IF([2]Sheet1!C94&lt;1,[2]Sheet1!C94,1)</f>
         <v>1</v>
       </c>
       <c r="D94" s="3">
@@ -9017,7 +7787,6 @@
         <v>0.04</v>
       </c>
       <c r="C95" s="3">
-        <f>IF([2]Sheet1!C95&lt;1,[2]Sheet1!C95,1)</f>
         <v>1</v>
       </c>
       <c r="D95" s="3">
@@ -9038,7 +7807,6 @@
         <v>0.05</v>
       </c>
       <c r="C96" s="3">
-        <f>IF([2]Sheet1!C96&lt;1,[2]Sheet1!C96,1)</f>
         <v>1</v>
       </c>
       <c r="D96" s="3">
@@ -9059,7 +7827,6 @@
         <v>0.06</v>
       </c>
       <c r="C97" s="3">
-        <f>IF([2]Sheet1!C97&lt;1,[2]Sheet1!C97,1)</f>
         <v>1</v>
       </c>
       <c r="D97" s="3">
@@ -9080,7 +7847,6 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C98" s="3">
-        <f>IF([2]Sheet1!C98&lt;1,[2]Sheet1!C98,1)</f>
         <v>1</v>
       </c>
       <c r="D98" s="3">
@@ -9101,7 +7867,6 @@
         <v>0.08</v>
       </c>
       <c r="C99" s="3">
-        <f>IF([2]Sheet1!C99&lt;1,[2]Sheet1!C99,1)</f>
         <v>1</v>
       </c>
       <c r="D99" s="3">
@@ -9122,7 +7887,6 @@
         <v>0.09</v>
       </c>
       <c r="C100" s="3">
-        <f>IF([2]Sheet1!C100&lt;1,[2]Sheet1!C100,1)</f>
         <v>1</v>
       </c>
       <c r="D100" s="3">
@@ -9143,7 +7907,6 @@
         <v>0.1</v>
       </c>
       <c r="C101" s="3">
-        <f>IF([2]Sheet1!C101&lt;1,[2]Sheet1!C101,1)</f>
         <v>0.99800944707458505</v>
       </c>
       <c r="D101" s="3">
